--- a/Algorithm/dataset/word_list.xlsx
+++ b/Algorithm/dataset/word_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\X_filter\알고리즘\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\X_filter\Algorithm\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D995A77-0A76-4B11-9DE3-E6D7758993E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3B568A-9B09-4493-8D3A-6B2797B06EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bad_word" sheetId="1" r:id="rId1"/>
@@ -3416,10 +3416,6 @@
     <t>^^ㅣ빨</t>
   </si>
   <si>
-    <t xml:space="preserve"> WORD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대체어</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3548,6 +3544,10 @@
   </si>
   <si>
     <t>얼굴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WORD</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3921,7 +3921,7 @@
   <dimension ref="A1:B1154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3931,10 +3931,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1" t="s">
         <v>1126</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -5722,7 +5722,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.4">
@@ -7060,7 +7060,7 @@
         <v>623</v>
       </c>
       <c r="B625" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.4">
@@ -7068,7 +7068,7 @@
         <v>624</v>
       </c>
       <c r="B626" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.4">
@@ -7076,7 +7076,7 @@
         <v>625</v>
       </c>
       <c r="B627" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.4">
@@ -7094,7 +7094,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.4">
@@ -7112,7 +7112,7 @@
         <v>631</v>
       </c>
       <c r="B633" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.4">
@@ -7280,7 +7280,7 @@
         <v>664</v>
       </c>
       <c r="B666" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.4">
@@ -7310,7 +7310,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A672" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.4">
@@ -7393,7 +7393,7 @@
         <v>685</v>
       </c>
       <c r="B688" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="689" spans="1:1" x14ac:dyDescent="0.4">
@@ -7428,7 +7428,7 @@
     </row>
     <row r="695" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A695" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="696" spans="1:1" x14ac:dyDescent="0.4">
@@ -7586,7 +7586,7 @@
         <v>722</v>
       </c>
       <c r="B726" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.4">
@@ -7594,7 +7594,7 @@
         <v>723</v>
       </c>
       <c r="B727" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.4">
@@ -7602,7 +7602,7 @@
         <v>724</v>
       </c>
       <c r="B728" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.4">
@@ -7615,7 +7615,7 @@
         <v>726</v>
       </c>
       <c r="B730" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.4">
@@ -7868,7 +7868,7 @@
         <v>776</v>
       </c>
       <c r="B780" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.4">
@@ -7876,7 +7876,7 @@
         <v>777</v>
       </c>
       <c r="B781" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.4">
@@ -8609,7 +8609,7 @@
         <v>923</v>
       </c>
       <c r="B927" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.4">
@@ -8627,7 +8627,7 @@
         <v>926</v>
       </c>
       <c r="B930" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.4">
@@ -8635,7 +8635,7 @@
         <v>927</v>
       </c>
       <c r="B931" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.4">
@@ -8643,7 +8643,7 @@
         <v>928</v>
       </c>
       <c r="B932" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.4">
@@ -8651,7 +8651,7 @@
         <v>929</v>
       </c>
       <c r="B933" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.4">
@@ -8659,7 +8659,7 @@
         <v>930</v>
       </c>
       <c r="B934" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.4">
@@ -9017,7 +9017,7 @@
         <v>1001</v>
       </c>
       <c r="B1005" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="1006" spans="1:2" x14ac:dyDescent="0.4">
@@ -9330,7 +9330,7 @@
         <v>1063</v>
       </c>
       <c r="B1067" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1068" spans="1:2" x14ac:dyDescent="0.4">
@@ -9338,7 +9338,7 @@
         <v>1064</v>
       </c>
       <c r="B1068" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1069" spans="1:2" x14ac:dyDescent="0.4">
@@ -9346,7 +9346,7 @@
         <v>1065</v>
       </c>
       <c r="B1069" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1070" spans="1:2" x14ac:dyDescent="0.4">
@@ -9354,7 +9354,7 @@
         <v>1066</v>
       </c>
       <c r="B1070" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="1071" spans="1:2" x14ac:dyDescent="0.4">
@@ -9654,130 +9654,130 @@
     </row>
     <row r="1130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1130" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="1131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1131" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="1132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1132" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="1133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1133" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="1134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1134" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="1135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1135" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="1136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1136" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B1136" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="1137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1137" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="1138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1138" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1139" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1140" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1141" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1142" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1143" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="1144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1144" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="1145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1145" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="1146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1146" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="1147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1147" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="1148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1148" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="1149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1149" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="1150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1150" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="1151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1151" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="1152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1152" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="1153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1153" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="1154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1154" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithm/dataset/word_list.xlsx
+++ b/Algorithm/dataset/word_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\X_filter\Algorithm\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B3B568A-9B09-4493-8D3A-6B2797B06EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66ACB548-9A18-4559-B70B-18BADCC80C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bad_word" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1186" uniqueCount="1171">
   <si>
     <t>18년</t>
   </si>
@@ -3548,6 +3548,26 @@
   </si>
   <si>
     <t>WORD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한여자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한남자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>착한아이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강아지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나쁜사람</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3921,7 +3941,7 @@
   <dimension ref="A1:B1154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3941,25 +3961,40 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>1166</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>1168</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">

--- a/Algorithm/dataset/word_list.xlsx
+++ b/Algorithm/dataset/word_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\xfilter\X_filter\Algorithm\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\X_filter\Algorithm\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83DFB43-4E93-4A4B-A78D-17086B391A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A8AB66-7237-4F37-AEC9-DBEB00574F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bad_word" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="1309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1314">
   <si>
     <t>WORD</t>
   </si>
@@ -4079,6 +4079,26 @@
   </si>
   <si>
     <t>쉰내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>순진한 사람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이러면 안되는데</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오마이갓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 못난이 녀석</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동생과 친한게 지내</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4454,8 +4474,8 @@
   </sheetPr>
   <dimension ref="A1:B1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1145" workbookViewId="0">
-      <selection activeCell="B707" sqref="B707"/>
+    <sheetView tabSelected="1" topLeftCell="A276" workbookViewId="0">
+      <selection activeCell="B297" sqref="B297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4590,6 +4610,9 @@
       <c r="A20" t="s">
         <v>26</v>
       </c>
+      <c r="B20" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
@@ -4746,7 +4769,7 @@
         <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>1185</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4754,7 +4777,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>1185</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4834,7 +4857,7 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>29</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5203,7 +5226,7 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>1226</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">

--- a/Algorithm/dataset/word_list.xlsx
+++ b/Algorithm/dataset/word_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23934DB3-ACC9-495C-A221-431BDDA6A627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4BF78-FE4E-4FCE-A327-8A5126CC8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="-16200" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bad_word" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="1745">
   <si>
     <t>WORD</t>
   </si>
@@ -3993,10 +3993,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>방귀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>성별 전환자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -5090,6 +5086,746 @@
   </si>
   <si>
     <t>올챙이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저기요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여보세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이쁜 사람</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚꽃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>들꽃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스모스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무궁화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파이팅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>효녀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 가족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕벚꽃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕들꽃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕벌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕보리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕잠자리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치구이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베지밀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>베지밀 먹어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩나무 심어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩죽 먹어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부 만들어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부 부침</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두부 튀김</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콩밥 먹어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠자리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곤충채집</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장구벌레</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>점순이</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바오밥나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구상나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타세콰이아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>잣나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>향나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벚나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>느티나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대추나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매화나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모과나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목련</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산딸나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산사나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산수유</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>살구나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이팝나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자두나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회양목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개나리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장미</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>계수나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>철쭉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노각나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동백나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>등나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명자나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>반송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보리수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>복숭아나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상수리나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쥐똥나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진달래</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>측백나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>눈향나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명자눔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마가목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플라타너스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>능수버들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수양버들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수양벚나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회화나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메타세콰이어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍단풍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가중나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡갈나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>왕벚꽃나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백엽송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가시오가피</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>배</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개암나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰솔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀룽나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비자나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>귤나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>딸기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만리화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>말채나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>망개나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매화오리나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매자나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>머루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그만해주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작살나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>찔레</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참느릅나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노무현 대통령님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜껑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>호랑버들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황철쭉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구슬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>히어리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흰참꽃나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>황매화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>팽나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>참오동나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개오동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃사과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꾸지뽕나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙우송</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 너무합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너도밤나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>단풍나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>맹그로브나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백향목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양산딸나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서양측백</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수양단풍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야광나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중국단풍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마로니에</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태산목</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>편백나무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포플러</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃기린</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃창포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>능소화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러지마세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 최고에요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신 덕분입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>감사합니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고맙습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그대</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>형님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도령</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>님이 최고에요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아저씨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어르신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자네</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아우님</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아주 좋습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최고입니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 좋습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재능이 있습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리는 할수 있습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신의 말이 맞습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇습니다</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도와주세요</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이렇게 해보면 어떨까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제 자신은</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저로서는</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저를</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>할수 있을까요?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진정하세요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5153,12 +5889,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5466,8 +6201,8 @@
   </sheetPr>
   <dimension ref="A1:B1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1031" workbookViewId="0">
-      <selection activeCell="B1070" sqref="B1070"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5489,7 +6224,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5521,7 +6256,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5529,7 +6264,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5537,7 +6272,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5545,7 +6280,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5553,7 +6288,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5561,7 +6296,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5569,7 +6304,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5577,7 +6312,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5585,7 +6320,7 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5593,7 +6328,7 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5601,7 +6336,7 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5609,7 +6344,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5617,7 +6352,7 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5625,7 +6360,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5633,7 +6368,7 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5649,7 +6384,7 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5657,7 +6392,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5665,7 +6400,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5673,7 +6408,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5681,7 +6416,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5689,7 +6424,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5697,7 +6432,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5705,7 +6440,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5713,7 +6448,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5721,7 +6456,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5729,7 +6464,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5737,7 +6472,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5745,7 +6480,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5753,7 +6488,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5769,7 +6504,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5777,7 +6512,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5785,7 +6520,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5809,7 +6544,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5817,7 +6552,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5825,7 +6560,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5833,7 +6568,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5841,7 +6576,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5849,7 +6584,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5857,7 +6592,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5865,7 +6600,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5881,7 +6616,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5889,7 +6624,7 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5897,7 +6632,7 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5905,7 +6640,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5921,7 +6656,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5929,7 +6664,7 @@
         <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5937,7 +6672,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5945,7 +6680,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5953,7 +6688,7 @@
         <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5969,7 +6704,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5977,7 +6712,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>26</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5985,7 +6720,7 @@
         <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5993,7 +6728,7 @@
         <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6001,7 +6736,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6009,7 +6744,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6017,7 +6752,7 @@
         <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6033,7 +6768,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6041,7 +6776,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6049,7 +6784,7 @@
         <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6057,7 +6792,7 @@
         <v>78</v>
       </c>
       <c r="B73" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6065,7 +6800,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6073,7 +6808,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6081,7 +6816,7 @@
         <v>81</v>
       </c>
       <c r="B76" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6089,7 +6824,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6097,7 +6832,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6113,7 +6848,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6121,7 +6856,7 @@
         <v>86</v>
       </c>
       <c r="B81" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6137,7 +6872,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6145,7 +6880,7 @@
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6153,7 +6888,7 @@
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6169,7 +6904,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6217,7 +6952,7 @@
         <v>98</v>
       </c>
       <c r="B93" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6241,7 +6976,7 @@
         <v>101</v>
       </c>
       <c r="B96" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6249,7 +6984,7 @@
         <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6257,7 +6992,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6265,7 +7000,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6273,7 +7008,7 @@
         <v>105</v>
       </c>
       <c r="B100" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6281,7 +7016,7 @@
         <v>106</v>
       </c>
       <c r="B101" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6297,7 +7032,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6305,7 +7040,7 @@
         <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6313,7 +7048,7 @@
         <v>110</v>
       </c>
       <c r="B105" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6321,7 +7056,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6329,7 +7064,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6345,7 +7080,7 @@
         <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6353,7 +7088,7 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6361,7 +7096,7 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6369,7 +7104,7 @@
         <v>117</v>
       </c>
       <c r="B112" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6377,7 +7112,7 @@
         <v>118</v>
       </c>
       <c r="B113" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6385,7 +7120,7 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6393,7 +7128,7 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6401,7 +7136,7 @@
         <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6417,7 +7152,7 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6441,7 +7176,7 @@
         <v>126</v>
       </c>
       <c r="B121" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6449,7 +7184,7 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6457,7 +7192,7 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6465,7 +7200,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6473,7 +7208,7 @@
         <v>130</v>
       </c>
       <c r="B125" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6481,7 +7216,7 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6489,7 +7224,7 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6497,7 +7232,7 @@
         <v>133</v>
       </c>
       <c r="B128" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6505,7 +7240,7 @@
         <v>134</v>
       </c>
       <c r="B129" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6513,7 +7248,7 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6521,7 +7256,7 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6529,7 +7264,7 @@
         <v>137</v>
       </c>
       <c r="B132" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6537,7 +7272,7 @@
         <v>138</v>
       </c>
       <c r="B133" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6545,7 +7280,7 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6553,7 +7288,7 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6561,7 +7296,7 @@
         <v>141</v>
       </c>
       <c r="B136" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6569,7 +7304,7 @@
         <v>142</v>
       </c>
       <c r="B137" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6577,14 +7312,14 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>144</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -6592,7 +7327,7 @@
       <c r="A140" t="s">
         <v>145</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -6600,16 +7335,16 @@
       <c r="A141" t="s">
         <v>146</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>1343</v>
+      <c r="B141" t="s">
+        <v>1342</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>147</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>1344</v>
+      <c r="B142" t="s">
+        <v>1343</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6617,7 +7352,7 @@
         <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6625,7 +7360,7 @@
         <v>149</v>
       </c>
       <c r="B144" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6633,7 +7368,7 @@
         <v>150</v>
       </c>
       <c r="B145" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6641,7 +7376,7 @@
         <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6649,7 +7384,7 @@
         <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6657,7 +7392,7 @@
         <v>153</v>
       </c>
       <c r="B148" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6665,7 +7400,7 @@
         <v>154</v>
       </c>
       <c r="B149" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6673,7 +7408,7 @@
         <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6681,7 +7416,7 @@
         <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6689,7 +7424,7 @@
         <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6697,7 +7432,7 @@
         <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6705,7 +7440,7 @@
         <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6713,7 +7448,7 @@
         <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6721,7 +7456,7 @@
         <v>161</v>
       </c>
       <c r="B156" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6729,7 +7464,7 @@
         <v>162</v>
       </c>
       <c r="B157" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6737,7 +7472,7 @@
         <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6745,7 +7480,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6753,7 +7488,7 @@
         <v>165</v>
       </c>
       <c r="B160" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6761,7 +7496,7 @@
         <v>166</v>
       </c>
       <c r="B161" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6769,7 +7504,7 @@
         <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6777,7 +7512,7 @@
         <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6785,7 +7520,7 @@
         <v>169</v>
       </c>
       <c r="B164" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6793,7 +7528,7 @@
         <v>170</v>
       </c>
       <c r="B165" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6801,7 +7536,7 @@
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6809,7 +7544,7 @@
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6817,7 +7552,7 @@
         <v>173</v>
       </c>
       <c r="B168" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6825,7 +7560,7 @@
         <v>174</v>
       </c>
       <c r="B169" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6833,7 +7568,7 @@
         <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6841,7 +7576,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6849,7 +7584,7 @@
         <v>177</v>
       </c>
       <c r="B172" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6857,7 +7592,7 @@
         <v>178</v>
       </c>
       <c r="B173" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6865,7 +7600,7 @@
         <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6873,7 +7608,7 @@
         <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6881,7 +7616,7 @@
         <v>181</v>
       </c>
       <c r="B176" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6889,7 +7624,7 @@
         <v>182</v>
       </c>
       <c r="B177" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6905,7 +7640,7 @@
         <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6913,7 +7648,7 @@
         <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6921,7 +7656,7 @@
         <v>186</v>
       </c>
       <c r="B181" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6929,7 +7664,7 @@
         <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6937,7 +7672,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6945,7 +7680,7 @@
         <v>189</v>
       </c>
       <c r="B184" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6953,7 +7688,7 @@
         <v>190</v>
       </c>
       <c r="B185" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6961,7 +7696,7 @@
         <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6969,7 +7704,7 @@
         <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6977,7 +7712,7 @@
         <v>193</v>
       </c>
       <c r="B188" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6985,7 +7720,7 @@
         <v>194</v>
       </c>
       <c r="B189" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -6993,7 +7728,7 @@
         <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7017,7 +7752,7 @@
         <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7033,7 +7768,7 @@
         <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>1181</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7041,7 +7776,7 @@
         <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7073,7 +7808,7 @@
         <v>205</v>
       </c>
       <c r="B200" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7081,7 +7816,7 @@
         <v>206</v>
       </c>
       <c r="B201" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7089,7 +7824,7 @@
         <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7105,7 +7840,7 @@
         <v>209</v>
       </c>
       <c r="B204" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7137,7 +7872,7 @@
         <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7153,7 +7888,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7169,7 +7904,7 @@
         <v>217</v>
       </c>
       <c r="B212" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7177,7 +7912,7 @@
         <v>218</v>
       </c>
       <c r="B213" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7185,7 +7920,7 @@
         <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7193,7 +7928,7 @@
         <v>220</v>
       </c>
       <c r="B215" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7201,7 +7936,7 @@
         <v>221</v>
       </c>
       <c r="B216" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7209,7 +7944,7 @@
         <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7217,7 +7952,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7225,7 +7960,7 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7233,7 +7968,7 @@
         <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7241,7 +7976,7 @@
         <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7249,7 +7984,7 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7257,7 +7992,7 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7265,7 +8000,7 @@
         <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7273,7 +8008,7 @@
         <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7281,7 +8016,7 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7297,7 +8032,7 @@
         <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7305,7 +8040,7 @@
         <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7321,7 +8056,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7329,7 +8064,7 @@
         <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7337,7 +8072,7 @@
         <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7345,7 +8080,7 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7361,7 +8096,7 @@
         <v>241</v>
       </c>
       <c r="B236" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7369,7 +8104,7 @@
         <v>242</v>
       </c>
       <c r="B237" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7377,7 +8112,7 @@
         <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7385,7 +8120,7 @@
         <v>244</v>
       </c>
       <c r="B239" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7393,7 +8128,7 @@
         <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7401,7 +8136,7 @@
         <v>246</v>
       </c>
       <c r="B241" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7409,7 +8144,7 @@
         <v>247</v>
       </c>
       <c r="B242" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7417,7 +8152,7 @@
         <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7425,7 +8160,7 @@
         <v>249</v>
       </c>
       <c r="B244" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7433,7 +8168,7 @@
         <v>250</v>
       </c>
       <c r="B245" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7441,7 +8176,7 @@
         <v>251</v>
       </c>
       <c r="B246" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7449,7 +8184,7 @@
         <v>252</v>
       </c>
       <c r="B247" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7457,7 +8192,7 @@
         <v>253</v>
       </c>
       <c r="B248" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7465,7 +8200,7 @@
         <v>254</v>
       </c>
       <c r="B249" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7473,7 +8208,7 @@
         <v>255</v>
       </c>
       <c r="B250" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7481,7 +8216,7 @@
         <v>256</v>
       </c>
       <c r="B251" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7489,7 +8224,7 @@
         <v>257</v>
       </c>
       <c r="B252" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7497,7 +8232,7 @@
         <v>258</v>
       </c>
       <c r="B253" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7513,7 +8248,7 @@
         <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="256" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7521,7 +8256,7 @@
         <v>261</v>
       </c>
       <c r="B256" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="257" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7529,7 +8264,7 @@
         <v>262</v>
       </c>
       <c r="B257" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="258" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7537,7 +8272,7 @@
         <v>263</v>
       </c>
       <c r="B258" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7545,7 +8280,7 @@
         <v>264</v>
       </c>
       <c r="B259" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="260" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7553,7 +8288,7 @@
         <v>265</v>
       </c>
       <c r="B260" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7561,7 +8296,7 @@
         <v>266</v>
       </c>
       <c r="B261" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="262" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7569,7 +8304,7 @@
         <v>267</v>
       </c>
       <c r="B262" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="263" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7577,7 +8312,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="264" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7585,7 +8320,7 @@
         <v>269</v>
       </c>
       <c r="B264" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7593,7 +8328,7 @@
         <v>270</v>
       </c>
       <c r="B265" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="266" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7601,7 +8336,7 @@
         <v>271</v>
       </c>
       <c r="B266" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7609,7 +8344,7 @@
         <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7617,7 +8352,7 @@
         <v>273</v>
       </c>
       <c r="B268" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="269" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7625,7 +8360,7 @@
         <v>274</v>
       </c>
       <c r="B269" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="270" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7633,7 +8368,7 @@
         <v>275</v>
       </c>
       <c r="B270" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="271" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7641,7 +8376,7 @@
         <v>276</v>
       </c>
       <c r="B271" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7665,7 +8400,7 @@
         <v>279</v>
       </c>
       <c r="B274" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="275" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7681,7 +8416,7 @@
         <v>281</v>
       </c>
       <c r="B276" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7689,7 +8424,7 @@
         <v>282</v>
       </c>
       <c r="B277" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7697,7 +8432,7 @@
         <v>283</v>
       </c>
       <c r="B278" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7705,7 +8440,7 @@
         <v>284</v>
       </c>
       <c r="B279" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7713,7 +8448,7 @@
         <v>285</v>
       </c>
       <c r="B280" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7721,7 +8456,7 @@
         <v>286</v>
       </c>
       <c r="B281" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7729,7 +8464,7 @@
         <v>287</v>
       </c>
       <c r="B282" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7737,7 +8472,7 @@
         <v>288</v>
       </c>
       <c r="B283" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="284" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7745,7 +8480,7 @@
         <v>289</v>
       </c>
       <c r="B284" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7753,7 +8488,7 @@
         <v>290</v>
       </c>
       <c r="B285" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7761,7 +8496,7 @@
         <v>291</v>
       </c>
       <c r="B286" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7769,7 +8504,7 @@
         <v>292</v>
       </c>
       <c r="B287" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7777,7 +8512,7 @@
         <v>293</v>
       </c>
       <c r="B288" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="289" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7785,7 +8520,7 @@
         <v>294</v>
       </c>
       <c r="B289" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="290" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7793,7 +8528,7 @@
         <v>295</v>
       </c>
       <c r="B290" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7801,7 +8536,7 @@
         <v>296</v>
       </c>
       <c r="B291" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7809,7 +8544,7 @@
         <v>297</v>
       </c>
       <c r="B292" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7817,7 +8552,7 @@
         <v>298</v>
       </c>
       <c r="B293" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7825,7 +8560,7 @@
         <v>299</v>
       </c>
       <c r="B294" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7833,7 +8568,7 @@
         <v>300</v>
       </c>
       <c r="B295" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7841,7 +8576,7 @@
         <v>301</v>
       </c>
       <c r="B296" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="297" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7849,7 +8584,7 @@
         <v>302</v>
       </c>
       <c r="B297" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7857,7 +8592,7 @@
         <v>303</v>
       </c>
       <c r="B298" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7865,7 +8600,7 @@
         <v>304</v>
       </c>
       <c r="B299" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="300" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7873,7 +8608,7 @@
         <v>305</v>
       </c>
       <c r="B300" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="301" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7881,7 +8616,7 @@
         <v>306</v>
       </c>
       <c r="B301" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7889,7 +8624,7 @@
         <v>307</v>
       </c>
       <c r="B302" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7897,7 +8632,7 @@
         <v>308</v>
       </c>
       <c r="B303" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7905,7 +8640,7 @@
         <v>309</v>
       </c>
       <c r="B304" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7913,7 +8648,7 @@
         <v>310</v>
       </c>
       <c r="B305" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7921,7 +8656,7 @@
         <v>311</v>
       </c>
       <c r="B306" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7929,7 +8664,7 @@
         <v>312</v>
       </c>
       <c r="B307" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7937,7 +8672,7 @@
         <v>313</v>
       </c>
       <c r="B308" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7945,7 +8680,7 @@
         <v>314</v>
       </c>
       <c r="B309" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7953,7 +8688,7 @@
         <v>315</v>
       </c>
       <c r="B310" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7961,7 +8696,7 @@
         <v>316</v>
       </c>
       <c r="B311" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7969,7 +8704,7 @@
         <v>317</v>
       </c>
       <c r="B312" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7977,7 +8712,7 @@
         <v>318</v>
       </c>
       <c r="B313" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7985,7 +8720,7 @@
         <v>319</v>
       </c>
       <c r="B314" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7993,7 +8728,7 @@
         <v>320</v>
       </c>
       <c r="B315" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8001,7 +8736,7 @@
         <v>321</v>
       </c>
       <c r="B316" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8009,7 +8744,7 @@
         <v>322</v>
       </c>
       <c r="B317" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="318" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8017,7 +8752,7 @@
         <v>323</v>
       </c>
       <c r="B318" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8025,7 +8760,7 @@
         <v>324</v>
       </c>
       <c r="B319" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="320" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8033,7 +8768,7 @@
         <v>325</v>
       </c>
       <c r="B320" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8041,7 +8776,7 @@
         <v>326</v>
       </c>
       <c r="B321" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8049,7 +8784,7 @@
         <v>327</v>
       </c>
       <c r="B322" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8057,7 +8792,7 @@
         <v>328</v>
       </c>
       <c r="B323" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8065,7 +8800,7 @@
         <v>329</v>
       </c>
       <c r="B324" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8073,7 +8808,7 @@
         <v>330</v>
       </c>
       <c r="B325" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8081,7 +8816,7 @@
         <v>331</v>
       </c>
       <c r="B326" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8089,7 +8824,7 @@
         <v>332</v>
       </c>
       <c r="B327" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="328" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8097,7 +8832,7 @@
         <v>333</v>
       </c>
       <c r="B328" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8105,7 +8840,7 @@
         <v>334</v>
       </c>
       <c r="B329" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="330" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8113,7 +8848,7 @@
         <v>335</v>
       </c>
       <c r="B330" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8121,7 +8856,7 @@
         <v>336</v>
       </c>
       <c r="B331" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="332" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8129,7 +8864,7 @@
         <v>337</v>
       </c>
       <c r="B332" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8137,7 +8872,7 @@
         <v>338</v>
       </c>
       <c r="B333" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8145,7 +8880,7 @@
         <v>339</v>
       </c>
       <c r="B334" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="335" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8168,46 +8903,64 @@
       <c r="A337" t="s">
         <v>342</v>
       </c>
+      <c r="B337" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="338" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A338" t="s">
         <v>343</v>
       </c>
+      <c r="B338" t="s">
+        <v>1564</v>
+      </c>
     </row>
     <row r="339" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A339" t="s">
         <v>344</v>
       </c>
+      <c r="B339" t="s">
+        <v>1565</v>
+      </c>
     </row>
     <row r="340" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A340" t="s">
         <v>345</v>
       </c>
+      <c r="B340" t="s">
+        <v>1566</v>
+      </c>
     </row>
     <row r="341" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A341" t="s">
         <v>346</v>
       </c>
+      <c r="B341" t="s">
+        <v>1567</v>
+      </c>
     </row>
     <row r="342" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A342" t="s">
         <v>347</v>
       </c>
       <c r="B342" t="s">
-        <v>1286</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A343" t="s">
         <v>348</v>
       </c>
+      <c r="B343" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="344" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A344" t="s">
         <v>349</v>
       </c>
       <c r="B344" t="s">
-        <v>1181</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8223,7 +8976,7 @@
         <v>351</v>
       </c>
       <c r="B346" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8231,7 +8984,7 @@
         <v>352</v>
       </c>
       <c r="B347" t="s">
-        <v>1181</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8239,7 +8992,7 @@
         <v>353</v>
       </c>
       <c r="B348" t="s">
-        <v>1181</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8254,11 +9007,17 @@
       <c r="A350" t="s">
         <v>355</v>
       </c>
+      <c r="B350" t="s">
+        <v>1221</v>
+      </c>
     </row>
     <row r="351" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A351" t="s">
         <v>356</v>
       </c>
+      <c r="B351" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="352" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A352" t="s">
@@ -8272,6 +9031,9 @@
       <c r="A353" t="s">
         <v>358</v>
       </c>
+      <c r="B353" t="s">
+        <v>1562</v>
+      </c>
     </row>
     <row r="354" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A354" t="s">
@@ -8286,7 +9048,7 @@
         <v>360</v>
       </c>
       <c r="B355" t="s">
-        <v>1182</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="356" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8302,7 +9064,7 @@
         <v>362</v>
       </c>
       <c r="B357" t="s">
-        <v>1182</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="358" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8317,6 +9079,9 @@
       <c r="A359" t="s">
         <v>365</v>
       </c>
+      <c r="B359" t="s">
+        <v>1570</v>
+      </c>
     </row>
     <row r="360" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A360" t="s">
@@ -8402,23 +9167,32 @@
       <c r="A370" t="s">
         <v>376</v>
       </c>
+      <c r="B370" t="s">
+        <v>1573</v>
+      </c>
     </row>
     <row r="371" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A371" t="s">
         <v>377</v>
       </c>
+      <c r="B371" t="s">
+        <v>1571</v>
+      </c>
     </row>
     <row r="372" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A372" t="s">
         <v>378</v>
       </c>
+      <c r="B372" t="s">
+        <v>1572</v>
+      </c>
     </row>
     <row r="373" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A373" t="s">
         <v>379</v>
       </c>
       <c r="B373" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="374" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8482,7 +9256,7 @@
         <v>387</v>
       </c>
       <c r="B381" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="382" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8490,48 +9264,72 @@
         <v>388</v>
       </c>
       <c r="B382" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="383" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A383" t="s">
         <v>389</v>
       </c>
+      <c r="B383" t="s">
+        <v>1574</v>
+      </c>
     </row>
     <row r="384" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A384" t="s">
         <v>390</v>
       </c>
+      <c r="B384" t="s">
+        <v>1575</v>
+      </c>
     </row>
     <row r="385" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A385" t="s">
         <v>391</v>
       </c>
+      <c r="B385" t="s">
+        <v>1576</v>
+      </c>
     </row>
     <row r="386" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A386" t="s">
         <v>392</v>
       </c>
+      <c r="B386" t="s">
+        <v>1577</v>
+      </c>
     </row>
     <row r="387" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A387" t="s">
         <v>393</v>
       </c>
+      <c r="B387" t="s">
+        <v>1578</v>
+      </c>
     </row>
     <row r="388" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A388" t="s">
         <v>394</v>
       </c>
+      <c r="B388" t="s">
+        <v>1579</v>
+      </c>
     </row>
     <row r="389" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A389" t="s">
         <v>395</v>
       </c>
+      <c r="B389" t="s">
+        <v>1579</v>
+      </c>
     </row>
     <row r="390" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A390" t="s">
         <v>396</v>
       </c>
+      <c r="B390" t="s">
+        <v>1580</v>
+      </c>
     </row>
     <row r="391" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A391" t="s">
@@ -8545,200 +9343,305 @@
       <c r="A392" t="s">
         <v>398</v>
       </c>
+      <c r="B392" t="s">
+        <v>1581</v>
+      </c>
     </row>
     <row r="393" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A393" t="s">
         <v>399</v>
       </c>
+      <c r="B393" t="s">
+        <v>1582</v>
+      </c>
     </row>
     <row r="394" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A394" t="s">
         <v>400</v>
       </c>
+      <c r="B394" t="s">
+        <v>1582</v>
+      </c>
     </row>
     <row r="395" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A395" t="s">
         <v>401</v>
       </c>
+      <c r="B395" t="s">
+        <v>1583</v>
+      </c>
     </row>
     <row r="396" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A396" t="s">
         <v>402</v>
       </c>
+      <c r="B396" t="s">
+        <v>1584</v>
+      </c>
     </row>
     <row r="397" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A397" t="s">
         <v>403</v>
       </c>
+      <c r="B397" t="s">
+        <v>1585</v>
+      </c>
     </row>
     <row r="398" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A398" t="s">
         <v>404</v>
       </c>
+      <c r="B398" t="s">
+        <v>1586</v>
+      </c>
     </row>
     <row r="399" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A399" t="s">
         <v>405</v>
       </c>
+      <c r="B399" t="s">
+        <v>1587</v>
+      </c>
     </row>
     <row r="400" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A400" t="s">
         <v>406</v>
       </c>
+      <c r="B400" t="s">
+        <v>1588</v>
+      </c>
     </row>
     <row r="401" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A401" t="s">
         <v>407</v>
       </c>
+      <c r="B401" t="s">
+        <v>1589</v>
+      </c>
     </row>
     <row r="402" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A402" t="s">
         <v>408</v>
       </c>
+      <c r="B402" t="s">
+        <v>1589</v>
+      </c>
     </row>
     <row r="403" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A403" t="s">
         <v>409</v>
       </c>
       <c r="B403" t="s">
-        <v>1181</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="404" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A404" t="s">
         <v>410</v>
       </c>
+      <c r="B404" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="405" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A405" t="s">
         <v>411</v>
       </c>
       <c r="B405" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="406" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A406" t="s">
         <v>412</v>
       </c>
+      <c r="B406" t="s">
+        <v>1596</v>
+      </c>
     </row>
     <row r="407" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A407" t="s">
         <v>413</v>
       </c>
+      <c r="B407" t="s">
+        <v>1597</v>
+      </c>
     </row>
     <row r="408" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A408" t="s">
         <v>414</v>
       </c>
+      <c r="B408" t="s">
+        <v>1598</v>
+      </c>
     </row>
     <row r="409" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A409" t="s">
         <v>415</v>
       </c>
+      <c r="B409" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="410" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A410" t="s">
         <v>416</v>
       </c>
+      <c r="B410" t="s">
+        <v>1600</v>
+      </c>
     </row>
     <row r="411" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A411" t="s">
         <v>417</v>
       </c>
+      <c r="B411" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="412" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A412" t="s">
         <v>418</v>
       </c>
+      <c r="B412" t="s">
+        <v>1602</v>
+      </c>
     </row>
     <row r="413" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A413" t="s">
         <v>419</v>
       </c>
+      <c r="B413" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="414" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A414" t="s">
         <v>420</v>
       </c>
+      <c r="B414" t="s">
+        <v>1604</v>
+      </c>
     </row>
     <row r="415" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A415" t="s">
         <v>421</v>
       </c>
+      <c r="B415" t="s">
+        <v>1605</v>
+      </c>
     </row>
     <row r="416" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A416" t="s">
         <v>422</v>
       </c>
+      <c r="B416" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="417" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A417" t="s">
         <v>423</v>
       </c>
+      <c r="B417" t="s">
+        <v>1607</v>
+      </c>
     </row>
     <row r="418" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A418" t="s">
         <v>424</v>
       </c>
+      <c r="B418" t="s">
+        <v>1608</v>
+      </c>
     </row>
     <row r="419" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A419" t="s">
         <v>425</v>
       </c>
+      <c r="B419" t="s">
+        <v>1609</v>
+      </c>
     </row>
     <row r="420" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A420" t="s">
         <v>426</v>
       </c>
+      <c r="B420" t="s">
+        <v>1610</v>
+      </c>
     </row>
     <row r="421" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A421" t="s">
         <v>427</v>
       </c>
+      <c r="B421" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="422" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A422" t="s">
         <v>428</v>
       </c>
+      <c r="B422" t="s">
+        <v>1612</v>
+      </c>
     </row>
     <row r="423" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A423" t="s">
         <v>429</v>
       </c>
+      <c r="B423" t="s">
+        <v>1613</v>
+      </c>
     </row>
     <row r="424" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A424" t="s">
         <v>430</v>
       </c>
       <c r="B424" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="425" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A425" t="s">
         <v>431</v>
       </c>
+      <c r="B425" t="s">
+        <v>1590</v>
+      </c>
     </row>
     <row r="426" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A426" t="s">
         <v>432</v>
       </c>
+      <c r="B426" t="s">
+        <v>1591</v>
+      </c>
     </row>
     <row r="427" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A427" t="s">
         <v>433</v>
       </c>
+      <c r="B427" t="s">
+        <v>1592</v>
+      </c>
     </row>
     <row r="428" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A428" t="s">
         <v>434</v>
       </c>
+      <c r="B428" t="s">
+        <v>1593</v>
+      </c>
     </row>
     <row r="429" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A429" t="s">
         <v>435</v>
       </c>
+      <c r="B429" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="430" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A430" t="s">
@@ -8753,7 +9656,7 @@
         <v>437</v>
       </c>
       <c r="B431" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="432" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8768,6 +9671,9 @@
       <c r="A433" t="s">
         <v>439</v>
       </c>
+      <c r="B433" t="s">
+        <v>1595</v>
+      </c>
     </row>
     <row r="434" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A434" t="s">
@@ -8829,81 +9735,129 @@
       <c r="A441" t="s">
         <v>447</v>
       </c>
+      <c r="B441" t="s">
+        <v>1614</v>
+      </c>
     </row>
     <row r="442" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A442" t="s">
         <v>448</v>
       </c>
+      <c r="B442" t="s">
+        <v>1615</v>
+      </c>
     </row>
     <row r="443" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A443" t="s">
         <v>449</v>
       </c>
+      <c r="B443" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="444" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A444" t="s">
         <v>450</v>
       </c>
+      <c r="B444" t="s">
+        <v>1617</v>
+      </c>
     </row>
     <row r="445" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A445" t="s">
         <v>451</v>
       </c>
+      <c r="B445" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="446" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A446" t="s">
         <v>452</v>
       </c>
+      <c r="B446" t="s">
+        <v>1619</v>
+      </c>
     </row>
     <row r="447" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A447" t="s">
         <v>453</v>
       </c>
+      <c r="B447" t="s">
+        <v>1620</v>
+      </c>
     </row>
     <row r="448" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A448" t="s">
         <v>454</v>
       </c>
+      <c r="B448" t="s">
+        <v>1569</v>
+      </c>
     </row>
     <row r="449" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A449" t="s">
         <v>455</v>
       </c>
+      <c r="B449" t="s">
+        <v>1621</v>
+      </c>
     </row>
     <row r="450" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A450" t="s">
         <v>456</v>
       </c>
+      <c r="B450" t="s">
+        <v>1622</v>
+      </c>
     </row>
     <row r="451" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A451" t="s">
         <v>457</v>
       </c>
+      <c r="B451" t="s">
+        <v>1623</v>
+      </c>
     </row>
     <row r="452" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A452" t="s">
         <v>458</v>
       </c>
+      <c r="B452" t="s">
+        <v>1624</v>
+      </c>
     </row>
     <row r="453" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A453" t="s">
         <v>459</v>
       </c>
+      <c r="B453" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="454" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A454" t="s">
         <v>460</v>
       </c>
+      <c r="B454" t="s">
+        <v>1625</v>
+      </c>
     </row>
     <row r="455" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A455" t="s">
         <v>461</v>
       </c>
+      <c r="B455" t="s">
+        <v>1626</v>
+      </c>
     </row>
     <row r="456" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A456" t="s">
         <v>462</v>
       </c>
+      <c r="B456" t="s">
+        <v>1627</v>
+      </c>
     </row>
     <row r="457" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A457" t="s">
@@ -8925,41 +9879,65 @@
       <c r="A459" t="s">
         <v>465</v>
       </c>
+      <c r="B459" t="s">
+        <v>1628</v>
+      </c>
     </row>
     <row r="460" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A460" t="s">
         <v>466</v>
       </c>
+      <c r="B460" t="s">
+        <v>1629</v>
+      </c>
     </row>
     <row r="461" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A461" t="s">
         <v>467</v>
       </c>
+      <c r="B461" t="s">
+        <v>1630</v>
+      </c>
     </row>
     <row r="462" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A462" t="s">
         <v>468</v>
       </c>
+      <c r="B462" t="s">
+        <v>1631</v>
+      </c>
     </row>
     <row r="463" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A463" t="s">
         <v>469</v>
       </c>
+      <c r="B463" t="s">
+        <v>1632</v>
+      </c>
     </row>
     <row r="464" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A464" t="s">
         <v>470</v>
       </c>
+      <c r="B464" t="s">
+        <v>1633</v>
+      </c>
     </row>
     <row r="465" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A465" t="s">
         <v>471</v>
       </c>
+      <c r="B465" t="s">
+        <v>1634</v>
+      </c>
     </row>
     <row r="466" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A466" t="s">
         <v>472</v>
       </c>
+      <c r="B466" t="s">
+        <v>1635</v>
+      </c>
     </row>
     <row r="467" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A467" t="s">
@@ -8990,7 +9968,7 @@
         <v>476</v>
       </c>
       <c r="B470" t="s">
-        <v>1238</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="471" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9045,11 +10023,17 @@
       <c r="A477" t="s">
         <v>483</v>
       </c>
+      <c r="B477" t="s">
+        <v>1637</v>
+      </c>
     </row>
     <row r="478" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A478" t="s">
         <v>484</v>
       </c>
+      <c r="B478" t="s">
+        <v>1638</v>
+      </c>
     </row>
     <row r="479" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A479" t="s">
@@ -9119,6 +10103,9 @@
       <c r="A487" t="s">
         <v>493</v>
       </c>
+      <c r="B487" t="s">
+        <v>1639</v>
+      </c>
     </row>
     <row r="488" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A488" t="s">
@@ -9172,6 +10159,9 @@
       <c r="A494" t="s">
         <v>500</v>
       </c>
+      <c r="B494" t="s">
+        <v>1640</v>
+      </c>
     </row>
     <row r="495" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A495" t="s">
@@ -9185,26 +10175,41 @@
       <c r="A496" t="s">
         <v>502</v>
       </c>
+      <c r="B496" t="s">
+        <v>1641</v>
+      </c>
     </row>
     <row r="497" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A497" t="s">
         <v>503</v>
       </c>
+      <c r="B497" t="s">
+        <v>1611</v>
+      </c>
     </row>
     <row r="498" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A498" t="s">
         <v>504</v>
       </c>
+      <c r="B498" t="s">
+        <v>1616</v>
+      </c>
     </row>
     <row r="499" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A499" t="s">
         <v>505</v>
       </c>
+      <c r="B499" t="s">
+        <v>1619</v>
+      </c>
     </row>
     <row r="500" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A500" t="s">
         <v>506</v>
       </c>
+      <c r="B500" t="s">
+        <v>1642</v>
+      </c>
     </row>
     <row r="501" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A501" t="s">
@@ -9219,7 +10224,7 @@
         <v>508</v>
       </c>
       <c r="B502" t="s">
-        <v>1181</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="503" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9227,7 +10232,7 @@
         <v>509</v>
       </c>
       <c r="B503" t="s">
-        <v>1181</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="504" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9275,7 +10280,7 @@
         <v>515</v>
       </c>
       <c r="B509" t="s">
-        <v>1181</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="510" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9291,7 +10296,7 @@
         <v>517</v>
       </c>
       <c r="B511" t="s">
-        <v>1181</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="512" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9306,11 +10311,17 @@
       <c r="A513" t="s">
         <v>519</v>
       </c>
+      <c r="B513" t="s">
+        <v>1643</v>
+      </c>
     </row>
     <row r="514" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A514" t="s">
         <v>520</v>
       </c>
+      <c r="B514" t="s">
+        <v>1603</v>
+      </c>
     </row>
     <row r="515" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A515" t="s">
@@ -9324,6 +10335,9 @@
       <c r="A516" t="s">
         <v>522</v>
       </c>
+      <c r="B516" t="s">
+        <v>1604</v>
+      </c>
     </row>
     <row r="517" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A517" t="s">
@@ -9337,13 +10351,16 @@
       <c r="A518" t="s">
         <v>524</v>
       </c>
+      <c r="B518" t="s">
+        <v>1606</v>
+      </c>
     </row>
     <row r="519" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A519" t="s">
         <v>525</v>
       </c>
       <c r="B519" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="520" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9359,7 +10376,7 @@
         <v>527</v>
       </c>
       <c r="B521" t="s">
-        <v>1181</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="522" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9446,28 +10463,40 @@
       <c r="A532" t="s">
         <v>538</v>
       </c>
+      <c r="B532" t="s">
+        <v>1608</v>
+      </c>
     </row>
     <row r="533" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A533" t="s">
         <v>539</v>
       </c>
+      <c r="B533" t="s">
+        <v>1644</v>
+      </c>
     </row>
     <row r="534" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A534" t="s">
         <v>540</v>
       </c>
+      <c r="B534" t="s">
+        <v>1645</v>
+      </c>
     </row>
     <row r="535" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A535" t="s">
         <v>541</v>
       </c>
+      <c r="B535" t="s">
+        <v>1646</v>
+      </c>
     </row>
     <row r="536" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A536" t="s">
         <v>542</v>
       </c>
       <c r="B536" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="537" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9475,7 +10504,7 @@
         <v>543</v>
       </c>
       <c r="B537" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="538" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9483,63 +10512,87 @@
         <v>544</v>
       </c>
       <c r="B538" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="539" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A539" t="s">
         <v>545</v>
       </c>
+      <c r="B539" t="s">
+        <v>1647</v>
+      </c>
     </row>
     <row r="540" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A540" t="s">
         <v>546</v>
       </c>
+      <c r="B540" t="s">
+        <v>1648</v>
+      </c>
     </row>
     <row r="541" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A541" t="s">
         <v>547</v>
       </c>
+      <c r="B541" t="s">
+        <v>1649</v>
+      </c>
     </row>
     <row r="542" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A542" t="s">
         <v>548</v>
       </c>
+      <c r="B542" t="s">
+        <v>1650</v>
+      </c>
     </row>
     <row r="543" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A543" t="s">
         <v>549</v>
       </c>
+      <c r="B543" t="s">
+        <v>1651</v>
+      </c>
     </row>
     <row r="544" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A544" t="s">
         <v>550</v>
       </c>
+      <c r="B544" t="s">
+        <v>1652</v>
+      </c>
     </row>
     <row r="545" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A545" t="s">
         <v>551</v>
       </c>
+      <c r="B545" t="s">
+        <v>1653</v>
+      </c>
     </row>
     <row r="546" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A546" t="s">
         <v>552</v>
       </c>
       <c r="B546" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="547" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A547" t="s">
         <v>553</v>
       </c>
+      <c r="B547" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="548" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A548" t="s">
         <v>554</v>
       </c>
       <c r="B548" t="s">
-        <v>1181</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="549" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9555,7 +10608,7 @@
         <v>556</v>
       </c>
       <c r="B550" t="s">
-        <v>1181</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="551" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9579,7 +10632,7 @@
         <v>559</v>
       </c>
       <c r="B553" t="s">
-        <v>1181</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="554" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9595,7 +10648,7 @@
         <v>561</v>
       </c>
       <c r="B555" t="s">
-        <v>1181</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="556" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9651,7 +10704,7 @@
         <v>568</v>
       </c>
       <c r="B562" t="s">
-        <v>1181</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="563" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9675,7 +10728,7 @@
         <v>571</v>
       </c>
       <c r="B565" t="s">
-        <v>1181</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="566" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9691,7 +10744,7 @@
         <v>573</v>
       </c>
       <c r="B567" t="s">
-        <v>1181</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="568" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9707,7 +10760,7 @@
         <v>575</v>
       </c>
       <c r="B569" t="s">
-        <v>1181</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="570" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9723,7 +10776,7 @@
         <v>577</v>
       </c>
       <c r="B571" t="s">
-        <v>1181</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="572" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9739,7 +10792,7 @@
         <v>579</v>
       </c>
       <c r="B573" t="s">
-        <v>1181</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="574" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9755,13 +10808,16 @@
         <v>581</v>
       </c>
       <c r="B575" t="s">
-        <v>1181</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="576" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A576" t="s">
         <v>582</v>
       </c>
+      <c r="B576" t="s">
+        <v>1655</v>
+      </c>
     </row>
     <row r="577" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A577" t="s">
@@ -9775,76 +10831,121 @@
       <c r="A578" t="s">
         <v>584</v>
       </c>
+      <c r="B578" t="s">
+        <v>1656</v>
+      </c>
     </row>
     <row r="579" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A579" t="s">
         <v>585</v>
       </c>
+      <c r="B579" t="s">
+        <v>1599</v>
+      </c>
     </row>
     <row r="580" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A580" t="s">
         <v>586</v>
       </c>
+      <c r="B580" t="s">
+        <v>1657</v>
+      </c>
     </row>
     <row r="581" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A581" t="s">
         <v>587</v>
       </c>
+      <c r="B581" t="s">
+        <v>1658</v>
+      </c>
     </row>
     <row r="582" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A582" t="s">
         <v>588</v>
       </c>
+      <c r="B582" t="s">
+        <v>1659</v>
+      </c>
     </row>
     <row r="583" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A583" t="s">
         <v>589</v>
       </c>
+      <c r="B583" t="s">
+        <v>1563</v>
+      </c>
     </row>
     <row r="584" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A584" t="s">
         <v>590</v>
       </c>
+      <c r="B584" t="s">
+        <v>1182</v>
+      </c>
     </row>
     <row r="585" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A585" t="s">
         <v>591</v>
       </c>
+      <c r="B585" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="586" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A586" t="s">
         <v>592</v>
       </c>
+      <c r="B586" t="s">
+        <v>1660</v>
+      </c>
     </row>
     <row r="587" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A587" t="s">
         <v>593</v>
       </c>
+      <c r="B587" t="s">
+        <v>1661</v>
+      </c>
     </row>
     <row r="588" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A588" t="s">
         <v>594</v>
       </c>
+      <c r="B588" t="s">
+        <v>1662</v>
+      </c>
     </row>
     <row r="589" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A589" t="s">
         <v>595</v>
       </c>
+      <c r="B589" t="s">
+        <v>1663</v>
+      </c>
     </row>
     <row r="590" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A590" t="s">
         <v>596</v>
       </c>
+      <c r="B590" t="s">
+        <v>1626</v>
+      </c>
     </row>
     <row r="591" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A591" t="s">
         <v>597</v>
       </c>
+      <c r="B591" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="592" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A592" t="s">
         <v>598</v>
       </c>
+      <c r="B592" t="s">
+        <v>1261</v>
+      </c>
     </row>
     <row r="593" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A593" t="s">
@@ -9882,6 +10983,9 @@
       <c r="A597" t="s">
         <v>603</v>
       </c>
+      <c r="B597" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="598" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A598" t="s">
@@ -9903,6 +11007,9 @@
       <c r="A600" t="s">
         <v>606</v>
       </c>
+      <c r="B600" t="s">
+        <v>1664</v>
+      </c>
     </row>
     <row r="601" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A601" t="s">
@@ -9916,6 +11023,9 @@
       <c r="A602" t="s">
         <v>608</v>
       </c>
+      <c r="B602" t="s">
+        <v>1665</v>
+      </c>
     </row>
     <row r="603" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A603" t="s">
@@ -9929,16 +11039,25 @@
       <c r="A604" t="s">
         <v>610</v>
       </c>
+      <c r="B604" t="s">
+        <v>1666</v>
+      </c>
     </row>
     <row r="605" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A605" t="s">
         <v>611</v>
       </c>
+      <c r="B605" t="s">
+        <v>1667</v>
+      </c>
     </row>
     <row r="606" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A606" t="s">
         <v>612</v>
       </c>
+      <c r="B606" t="s">
+        <v>1668</v>
+      </c>
     </row>
     <row r="607" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A607" t="s">
@@ -9953,7 +11072,7 @@
         <v>614</v>
       </c>
       <c r="B608" t="s">
-        <v>1181</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="609" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9977,7 +11096,7 @@
         <v>617</v>
       </c>
       <c r="B611" t="s">
-        <v>1181</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="612" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -9992,36 +11111,57 @@
       <c r="A613" t="s">
         <v>619</v>
       </c>
+      <c r="B613" t="s">
+        <v>1669</v>
+      </c>
     </row>
     <row r="614" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A614" t="s">
         <v>620</v>
       </c>
+      <c r="B614" t="s">
+        <v>1177</v>
+      </c>
     </row>
     <row r="615" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A615" t="s">
         <v>621</v>
       </c>
+      <c r="B615" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="616" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A616" t="s">
         <v>622</v>
       </c>
+      <c r="B616" t="s">
+        <v>1190</v>
+      </c>
     </row>
     <row r="617" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A617" t="s">
         <v>623</v>
       </c>
+      <c r="B617" t="s">
+        <v>1618</v>
+      </c>
     </row>
     <row r="618" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A618" t="s">
         <v>624</v>
       </c>
+      <c r="B618" t="s">
+        <v>1670</v>
+      </c>
     </row>
     <row r="619" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A619" t="s">
         <v>625</v>
       </c>
+      <c r="B619" t="s">
+        <v>1670</v>
+      </c>
     </row>
     <row r="620" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A620" t="s">
@@ -10035,13 +11175,16 @@
       <c r="A621" t="s">
         <v>627</v>
       </c>
+      <c r="B621" t="s">
+        <v>1671</v>
+      </c>
     </row>
     <row r="622" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A622" t="s">
         <v>628</v>
       </c>
       <c r="B622" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="623" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10049,7 +11192,7 @@
         <v>629</v>
       </c>
       <c r="B623" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="624" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10057,7 +11200,7 @@
         <v>630</v>
       </c>
       <c r="B624" t="s">
-        <v>1181</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="625" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10120,6 +11263,9 @@
       <c r="A632" t="s">
         <v>642</v>
       </c>
+      <c r="B632" t="s">
+        <v>1672</v>
+      </c>
     </row>
     <row r="633" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A633" t="s">
@@ -10142,7 +11288,7 @@
         <v>645</v>
       </c>
       <c r="B635" t="s">
-        <v>1181</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="636" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10158,7 +11304,7 @@
         <v>647</v>
       </c>
       <c r="B637" t="s">
-        <v>1181</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="638" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10174,7 +11320,7 @@
         <v>649</v>
       </c>
       <c r="B639" t="s">
-        <v>1181</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="640" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10190,7 +11336,7 @@
         <v>651</v>
       </c>
       <c r="B641" t="s">
-        <v>1181</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="642" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10206,7 +11352,7 @@
         <v>653</v>
       </c>
       <c r="B643" t="s">
-        <v>1181</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="644" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10230,7 +11376,7 @@
         <v>656</v>
       </c>
       <c r="B646" t="s">
-        <v>1181</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="647" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10254,7 +11400,7 @@
         <v>659</v>
       </c>
       <c r="B649" t="s">
-        <v>1181</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="650" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10270,7 +11416,7 @@
         <v>661</v>
       </c>
       <c r="B651" t="s">
-        <v>1181</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="652" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10286,7 +11432,7 @@
         <v>663</v>
       </c>
       <c r="B653" t="s">
-        <v>1181</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="654" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10302,7 +11448,7 @@
         <v>665</v>
       </c>
       <c r="B655" t="s">
-        <v>1181</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="656" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10318,7 +11464,7 @@
         <v>667</v>
       </c>
       <c r="B657" t="s">
-        <v>1181</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="658" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10374,7 +11520,7 @@
         <v>674</v>
       </c>
       <c r="B664" t="s">
-        <v>1181</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="665" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10414,7 +11560,7 @@
         <v>680</v>
       </c>
       <c r="B669" t="s">
-        <v>1181</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="670" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10430,7 +11576,7 @@
         <v>682</v>
       </c>
       <c r="B671" t="s">
-        <v>1181</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="672" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10446,7 +11592,7 @@
         <v>683</v>
       </c>
       <c r="B673" t="s">
-        <v>1181</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="674" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10462,7 +11608,7 @@
         <v>685</v>
       </c>
       <c r="B675" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="676" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10470,7 +11616,7 @@
         <v>686</v>
       </c>
       <c r="B676" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="677" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10478,7 +11624,7 @@
         <v>687</v>
       </c>
       <c r="B677" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="678" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10486,7 +11632,7 @@
         <v>688</v>
       </c>
       <c r="B678" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="679" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10494,7 +11640,7 @@
         <v>689</v>
       </c>
       <c r="B679" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="680" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10509,6 +11655,9 @@
       <c r="A681" t="s">
         <v>691</v>
       </c>
+      <c r="B681" t="s">
+        <v>1673</v>
+      </c>
     </row>
     <row r="682" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A682" t="s">
@@ -10522,6 +11671,9 @@
       <c r="A683" t="s">
         <v>693</v>
       </c>
+      <c r="B683" t="s">
+        <v>1674</v>
+      </c>
     </row>
     <row r="684" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A684" t="s">
@@ -10608,7 +11760,7 @@
         <v>704</v>
       </c>
       <c r="B694" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10616,7 +11768,7 @@
         <v>705</v>
       </c>
       <c r="B695" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10624,7 +11776,7 @@
         <v>706</v>
       </c>
       <c r="B696" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10632,7 +11784,7 @@
         <v>707</v>
       </c>
       <c r="B697" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10640,7 +11792,7 @@
         <v>708</v>
       </c>
       <c r="B698" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10680,7 +11832,7 @@
         <v>713</v>
       </c>
       <c r="B703" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10688,7 +11840,7 @@
         <v>714</v>
       </c>
       <c r="B704" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10696,7 +11848,7 @@
         <v>715</v>
       </c>
       <c r="B705" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -10711,6 +11863,9 @@
       <c r="A707" t="s">
         <v>717</v>
       </c>
+      <c r="B707" t="s">
+        <v>1675</v>
+      </c>
     </row>
     <row r="708" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A708" t="s">
@@ -10997,7 +12152,7 @@
         <v>755</v>
       </c>
       <c r="B743" t="s">
-        <v>1181</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11037,7 +12192,7 @@
         <v>760</v>
       </c>
       <c r="B748" t="s">
-        <v>1181</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11116,6 +12271,9 @@
       <c r="A758" t="s">
         <v>770</v>
       </c>
+      <c r="B758" t="s">
+        <v>1676</v>
+      </c>
     </row>
     <row r="759" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A759" t="s">
@@ -11193,11 +12351,17 @@
       <c r="A768" t="s">
         <v>780</v>
       </c>
+      <c r="B768" t="s">
+        <v>1677</v>
+      </c>
     </row>
     <row r="769" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A769" t="s">
         <v>781</v>
       </c>
+      <c r="B769" t="s">
+        <v>1678</v>
+      </c>
     </row>
     <row r="770" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A770" t="s">
@@ -11236,20 +12400,23 @@
         <v>786</v>
       </c>
       <c r="B774" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="775" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A775" t="s">
         <v>787</v>
       </c>
+      <c r="B775" t="s">
+        <v>1679</v>
+      </c>
     </row>
     <row r="776" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A776" t="s">
         <v>788</v>
       </c>
       <c r="B776" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11265,7 +12432,7 @@
         <v>790</v>
       </c>
       <c r="B778" t="s">
-        <v>1181</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11297,7 +12464,7 @@
         <v>795</v>
       </c>
       <c r="B782" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="783" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11368,28 +12535,40 @@
       <c r="A791" t="s">
         <v>804</v>
       </c>
+      <c r="B791" t="s">
+        <v>1621</v>
+      </c>
     </row>
     <row r="792" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A792" t="s">
         <v>805</v>
       </c>
+      <c r="B792" t="s">
+        <v>1680</v>
+      </c>
     </row>
     <row r="793" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A793" t="s">
         <v>806</v>
       </c>
+      <c r="B793" t="s">
+        <v>1681</v>
+      </c>
     </row>
     <row r="794" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A794" t="s">
         <v>807</v>
       </c>
+      <c r="B794" t="s">
+        <v>1682</v>
+      </c>
     </row>
     <row r="795" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A795" t="s">
         <v>808</v>
       </c>
       <c r="B795" t="s">
-        <v>1181</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11405,7 +12584,7 @@
         <v>810</v>
       </c>
       <c r="B797" t="s">
-        <v>1181</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11421,7 +12600,7 @@
         <v>812</v>
       </c>
       <c r="B799" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11437,7 +12616,7 @@
         <v>814</v>
       </c>
       <c r="B801" t="s">
-        <v>1181</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11476,13 +12655,16 @@
       <c r="A806" t="s">
         <v>819</v>
       </c>
+      <c r="B806" t="s">
+        <v>1176</v>
+      </c>
     </row>
     <row r="807" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A807" t="s">
         <v>820</v>
       </c>
       <c r="B807" t="s">
-        <v>1181</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11498,7 +12680,7 @@
         <v>822</v>
       </c>
       <c r="B809" t="s">
-        <v>1181</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11530,7 +12712,7 @@
         <v>826</v>
       </c>
       <c r="B813" t="s">
-        <v>1181</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="814" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11546,7 +12728,7 @@
         <v>828</v>
       </c>
       <c r="B815" t="s">
-        <v>1181</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11562,7 +12744,7 @@
         <v>830</v>
       </c>
       <c r="B817" t="s">
-        <v>1181</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11818,7 +13000,7 @@
         <v>862</v>
       </c>
       <c r="B849" t="s">
-        <v>1181</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11874,7 +13056,7 @@
         <v>869</v>
       </c>
       <c r="B856" t="s">
-        <v>1181</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="857" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11889,11 +13071,17 @@
       <c r="A858" t="s">
         <v>871</v>
       </c>
+      <c r="B858" t="s">
+        <v>1683</v>
+      </c>
     </row>
     <row r="859" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A859" t="s">
         <v>872</v>
       </c>
+      <c r="B859" t="s">
+        <v>1684</v>
+      </c>
     </row>
     <row r="860" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A860" t="s">
@@ -11916,7 +13104,7 @@
         <v>875</v>
       </c>
       <c r="B862" t="s">
-        <v>1181</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="863" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11956,7 +13144,7 @@
         <v>880</v>
       </c>
       <c r="B867" t="s">
-        <v>1181</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -11995,11 +13183,17 @@
       <c r="A872" t="s">
         <v>885</v>
       </c>
+      <c r="B872" t="s">
+        <v>1639</v>
+      </c>
     </row>
     <row r="873" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A873" t="s">
         <v>886</v>
       </c>
+      <c r="B873" t="s">
+        <v>1685</v>
+      </c>
     </row>
     <row r="874" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A874" t="s">
@@ -12086,7 +13280,7 @@
         <v>897</v>
       </c>
       <c r="B884" t="s">
-        <v>1181</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="885" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12117,6 +13311,9 @@
       <c r="A888" t="s">
         <v>901</v>
       </c>
+      <c r="B888" t="s">
+        <v>1686</v>
+      </c>
     </row>
     <row r="889" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A889" t="s">
@@ -12291,7 +13488,7 @@
         <v>923</v>
       </c>
       <c r="B910" t="s">
-        <v>1181</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12307,7 +13504,7 @@
         <v>925</v>
       </c>
       <c r="B912" t="s">
-        <v>1181</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12379,13 +13576,16 @@
         <v>934</v>
       </c>
       <c r="B921" t="s">
-        <v>1181</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="922" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A922" t="s">
         <v>935</v>
       </c>
+      <c r="B922" t="s">
+        <v>1687</v>
+      </c>
     </row>
     <row r="923" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A923" t="s">
@@ -12656,7 +13856,7 @@
         <v>969</v>
       </c>
       <c r="B956" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="957" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12664,7 +13864,7 @@
         <v>970</v>
       </c>
       <c r="B957" t="s">
-        <v>1181</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="958" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12695,6 +13895,9 @@
       <c r="A961" t="s">
         <v>974</v>
       </c>
+      <c r="B961" t="s">
+        <v>1351</v>
+      </c>
     </row>
     <row r="962" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A962" t="s">
@@ -12717,7 +13920,7 @@
         <v>977</v>
       </c>
       <c r="B964" t="s">
-        <v>1181</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="965" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12732,29 +13935,41 @@
       <c r="A966" t="s">
         <v>979</v>
       </c>
+      <c r="B966" t="s">
+        <v>1688</v>
+      </c>
     </row>
     <row r="967" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A967" t="s">
         <v>980</v>
       </c>
       <c r="B967" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="968" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A968" t="s">
         <v>981</v>
       </c>
+      <c r="B968" t="s">
+        <v>1689</v>
+      </c>
     </row>
     <row r="969" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A969" t="s">
         <v>982</v>
       </c>
+      <c r="B969" t="s">
+        <v>1690</v>
+      </c>
     </row>
     <row r="970" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A970" t="s">
         <v>983</v>
       </c>
+      <c r="B970" t="s">
+        <v>1691</v>
+      </c>
     </row>
     <row r="971" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A971" t="s">
@@ -12768,16 +13983,25 @@
       <c r="A972" t="s">
         <v>985</v>
       </c>
+      <c r="B972" t="s">
+        <v>1692</v>
+      </c>
     </row>
     <row r="973" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A973" t="s">
         <v>986</v>
       </c>
+      <c r="B973" t="s">
+        <v>1608</v>
+      </c>
     </row>
     <row r="974" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A974" t="s">
         <v>987</v>
       </c>
+      <c r="B974" t="s">
+        <v>1693</v>
+      </c>
     </row>
     <row r="975" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A975" t="s">
@@ -12807,6 +14031,9 @@
       <c r="A978" t="s">
         <v>991</v>
       </c>
+      <c r="B978" t="s">
+        <v>1210</v>
+      </c>
     </row>
     <row r="979" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A979" t="s">
@@ -12828,6 +14055,9 @@
       <c r="A981" t="s">
         <v>994</v>
       </c>
+      <c r="B981" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="982" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A982" t="s">
@@ -12841,18 +14071,24 @@
       <c r="A983" t="s">
         <v>996</v>
       </c>
+      <c r="B983" t="s">
+        <v>1210</v>
+      </c>
     </row>
     <row r="984" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A984" t="s">
         <v>997</v>
       </c>
+      <c r="B984" t="s">
+        <v>1642</v>
+      </c>
     </row>
     <row r="985" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A985" t="s">
         <v>998</v>
       </c>
       <c r="B985" t="s">
-        <v>1181</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="986" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12876,7 +14112,7 @@
         <v>1001</v>
       </c>
       <c r="B988" t="s">
-        <v>1181</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="989" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12884,7 +14120,7 @@
         <v>1002</v>
       </c>
       <c r="B989" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="990" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12892,7 +14128,7 @@
         <v>1003</v>
       </c>
       <c r="B990" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="991" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12900,7 +14136,7 @@
         <v>1004</v>
       </c>
       <c r="B991" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="992" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12932,49 +14168,64 @@
         <v>1008</v>
       </c>
       <c r="B995" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="996" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A996" t="s">
         <v>1009</v>
       </c>
+      <c r="B996" t="s">
+        <v>1610</v>
+      </c>
     </row>
     <row r="997" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A997" t="s">
         <v>1010</v>
       </c>
       <c r="B997" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="998" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A998" t="s">
         <v>1011</v>
       </c>
+      <c r="B998" t="s">
+        <v>1695</v>
+      </c>
     </row>
     <row r="999" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A999" t="s">
         <v>1012</v>
       </c>
+      <c r="B999" t="s">
+        <v>1694</v>
+      </c>
     </row>
     <row r="1000" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1000" t="s">
         <v>1013</v>
       </c>
+      <c r="B1000" t="s">
+        <v>1615</v>
+      </c>
     </row>
     <row r="1001" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1001" t="s">
         <v>1014</v>
       </c>
       <c r="B1001" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="1002" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1002" t="s">
         <v>1015</v>
       </c>
+      <c r="B1002" t="s">
+        <v>1696</v>
+      </c>
     </row>
     <row r="1003" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1003" t="s">
@@ -13100,18 +14351,24 @@
       <c r="A1018" t="s">
         <v>1031</v>
       </c>
+      <c r="B1018" t="s">
+        <v>1636</v>
+      </c>
     </row>
     <row r="1019" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1019" t="s">
         <v>1032</v>
       </c>
+      <c r="B1019" t="s">
+        <v>1697</v>
+      </c>
     </row>
     <row r="1020" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1020" t="s">
         <v>1033</v>
       </c>
       <c r="B1020" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1021" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13126,11 +14383,17 @@
       <c r="A1022" t="s">
         <v>1035</v>
       </c>
+      <c r="B1022" t="s">
+        <v>1698</v>
+      </c>
     </row>
     <row r="1023" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1023" t="s">
         <v>1036</v>
       </c>
+      <c r="B1023" t="s">
+        <v>1699</v>
+      </c>
     </row>
     <row r="1024" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1024" t="s">
@@ -13144,6 +14407,9 @@
       <c r="A1025" t="s">
         <v>1038</v>
       </c>
+      <c r="B1025" t="s">
+        <v>1700</v>
+      </c>
     </row>
     <row r="1026" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1026" t="s">
@@ -13214,7 +14480,7 @@
         <v>1047</v>
       </c>
       <c r="B1034" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="1035" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13229,6 +14495,9 @@
       <c r="A1036" t="s">
         <v>1049</v>
       </c>
+      <c r="B1036" t="s">
+        <v>1701</v>
+      </c>
     </row>
     <row r="1037" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1037" t="s">
@@ -13251,7 +14520,7 @@
         <v>1052</v>
       </c>
       <c r="B1039" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1040" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13267,7 +14536,7 @@
         <v>1054</v>
       </c>
       <c r="B1041" t="s">
-        <v>1181</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1042" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13275,7 +14544,7 @@
         <v>1055</v>
       </c>
       <c r="B1042" t="s">
-        <v>1181</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1043" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13283,7 +14552,7 @@
         <v>1056</v>
       </c>
       <c r="B1043" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1044" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13315,7 +14584,7 @@
         <v>1060</v>
       </c>
       <c r="B1047" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="1048" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13323,7 +14592,7 @@
         <v>1061</v>
       </c>
       <c r="B1048" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="1049" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13331,7 +14600,7 @@
         <v>1062</v>
       </c>
       <c r="B1049" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="1050" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13339,7 +14608,7 @@
         <v>1063</v>
       </c>
       <c r="B1050" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="1051" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13347,7 +14616,7 @@
         <v>1064</v>
       </c>
       <c r="B1051" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="1052" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13355,7 +14624,7 @@
         <v>1065</v>
       </c>
       <c r="B1052" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="1053" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13363,7 +14632,7 @@
         <v>1066</v>
       </c>
       <c r="B1053" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="1054" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13371,7 +14640,7 @@
         <v>1067</v>
       </c>
       <c r="B1054" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="1055" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13379,7 +14648,7 @@
         <v>1068</v>
       </c>
       <c r="B1055" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="1056" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13387,7 +14656,7 @@
         <v>1069</v>
       </c>
       <c r="B1056" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="1057" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13395,7 +14664,7 @@
         <v>1070</v>
       </c>
       <c r="B1057" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="1058" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13410,11 +14679,17 @@
       <c r="A1059" t="s">
         <v>1072</v>
       </c>
+      <c r="B1059" t="s">
+        <v>1702</v>
+      </c>
     </row>
     <row r="1060" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1060" t="s">
         <v>1073</v>
       </c>
+      <c r="B1060" t="s">
+        <v>1703</v>
+      </c>
     </row>
     <row r="1061" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1061" t="s">
@@ -13525,7 +14800,7 @@
         <v>1087</v>
       </c>
       <c r="B1074" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="1075" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13533,7 +14808,7 @@
         <v>1088</v>
       </c>
       <c r="B1075" t="s">
-        <v>1181</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13541,7 +14816,7 @@
         <v>1089</v>
       </c>
       <c r="B1076" t="s">
-        <v>1181</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="1077" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13549,7 +14824,7 @@
         <v>1090</v>
       </c>
       <c r="B1077" t="s">
-        <v>1181</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="1078" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13588,16 +14863,25 @@
       <c r="A1082" t="s">
         <v>1095</v>
       </c>
+      <c r="B1082" t="s">
+        <v>1683</v>
+      </c>
     </row>
     <row r="1083" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1083" t="s">
         <v>1096</v>
       </c>
+      <c r="B1083" t="s">
+        <v>1704</v>
+      </c>
     </row>
     <row r="1084" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1084" t="s">
         <v>1097</v>
       </c>
+      <c r="B1084" t="s">
+        <v>1705</v>
+      </c>
     </row>
     <row r="1085" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1085" t="s">
@@ -13635,26 +14919,41 @@
       <c r="A1089" t="s">
         <v>1209</v>
       </c>
+      <c r="B1089" t="s">
+        <v>1643</v>
+      </c>
     </row>
     <row r="1090" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1090" t="s">
         <v>1102</v>
       </c>
+      <c r="B1090" t="s">
+        <v>1706</v>
+      </c>
     </row>
     <row r="1091" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1091" t="s">
         <v>1103</v>
       </c>
+      <c r="B1091" t="s">
+        <v>1610</v>
+      </c>
     </row>
     <row r="1092" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1092" t="s">
         <v>1104</v>
       </c>
+      <c r="B1092" t="s">
+        <v>1707</v>
+      </c>
     </row>
     <row r="1093" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1093" t="s">
         <v>1105</v>
       </c>
+      <c r="B1093" t="s">
+        <v>1708</v>
+      </c>
     </row>
     <row r="1094" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1094" t="s">
@@ -13725,7 +15024,7 @@
         <v>1114</v>
       </c>
       <c r="B1102" t="s">
-        <v>1181</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13892,6 +15191,9 @@
       <c r="A1123" t="s">
         <v>1135</v>
       </c>
+      <c r="B1123" t="s">
+        <v>1709</v>
+      </c>
     </row>
     <row r="1124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1124" t="s">
@@ -13946,7 +15248,7 @@
         <v>1142</v>
       </c>
       <c r="B1130" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="1131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -14010,7 +15312,7 @@
         <v>1151</v>
       </c>
       <c r="B1138" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="1139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -14018,7 +15320,7 @@
         <v>1152</v>
       </c>
       <c r="B1139" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="1140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -14138,7 +15440,7 @@
         <v>1173</v>
       </c>
       <c r="B1154" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
   </sheetData>

--- a/Algorithm/dataset/word_list.xlsx
+++ b/Algorithm/dataset/word_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\X_filter\Algorithm\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E4BF78-FE4E-4FCE-A327-8A5126CC8C6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E04577D-09FA-47D1-AC10-5A06F9A48E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bad_word" sheetId="1" r:id="rId1"/>
@@ -6201,9 +6201,7 @@
   </sheetPr>
   <dimension ref="A1:B1154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>

--- a/Algorithm/dataset/word_list.xlsx
+++ b/Algorithm/dataset/word_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GJAISCHOOL\Desktop\X_filter\Algorithm\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A7EF3-87D7-42B0-A2FD-3B15F01F5ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28FE9F5-53BC-4D41-8994-25665A07912C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="-10650" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bad_word" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2326" uniqueCount="1746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="1747">
   <si>
     <t>WORD</t>
   </si>
@@ -5831,6 +5831,10 @@
   </si>
   <si>
     <t>관장해</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨발놈아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -6218,10 +6222,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B1163"/>
+  <dimension ref="A1:B1164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1144" workbookViewId="0">
-      <selection activeCell="G1151" sqref="G1151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -11848,7 +11852,7 @@
     </row>
     <row r="703" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A703" t="s">
-        <v>304</v>
+        <v>1746</v>
       </c>
       <c r="B703" t="s">
         <v>1701</v>
@@ -11856,119 +11860,119 @@
     </row>
     <row r="704" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A704" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B704" t="s">
-        <v>1467</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A705" t="s">
-        <v>1112</v>
+        <v>305</v>
       </c>
       <c r="B705" t="s">
-        <v>1692</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A706" t="s">
-        <v>306</v>
+        <v>1112</v>
       </c>
       <c r="B706" t="s">
-        <v>1468</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A707" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B707" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A708" t="s">
-        <v>906</v>
+        <v>307</v>
       </c>
       <c r="B708" t="s">
-        <v>1175</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A709" t="s">
-        <v>308</v>
+        <v>906</v>
       </c>
       <c r="B709" t="s">
-        <v>1470</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A710" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B710" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A711" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B711" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A712" t="s">
-        <v>907</v>
+        <v>310</v>
       </c>
       <c r="B712" t="s">
-        <v>1175</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A713" t="s">
-        <v>311</v>
+        <v>907</v>
       </c>
       <c r="B713" t="s">
-        <v>1473</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A714" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B714" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A715" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B715" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A716" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B716" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A717" t="s">
-        <v>908</v>
+        <v>314</v>
       </c>
       <c r="B717" t="s">
-        <v>1175</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A718" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B718" t="s">
         <v>1175</v>
@@ -11976,7 +11980,7 @@
     </row>
     <row r="719" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A719" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B719" t="s">
         <v>1175</v>
@@ -11984,31 +11988,31 @@
     </row>
     <row r="720" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A720" t="s">
-        <v>315</v>
+        <v>910</v>
       </c>
       <c r="B720" t="s">
-        <v>1477</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A721" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B721" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A722" t="s">
-        <v>911</v>
+        <v>316</v>
       </c>
       <c r="B722" t="s">
-        <v>1175</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A723" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B723" t="s">
         <v>1175</v>
@@ -12016,95 +12020,95 @@
     </row>
     <row r="724" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A724" t="s">
-        <v>317</v>
+        <v>912</v>
       </c>
       <c r="B724" t="s">
-        <v>1479</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A725" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B725" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A726" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B726" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A727" t="s">
-        <v>913</v>
+        <v>319</v>
       </c>
       <c r="B727" t="s">
-        <v>1175</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A728" t="s">
-        <v>320</v>
+        <v>913</v>
       </c>
       <c r="B728" t="s">
-        <v>1482</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A729" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B729" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A730" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B730" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A731" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B731" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A732" t="s">
-        <v>914</v>
+        <v>323</v>
       </c>
       <c r="B732" t="s">
-        <v>1175</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A733" t="s">
-        <v>324</v>
+        <v>914</v>
       </c>
       <c r="B733" t="s">
-        <v>1486</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A734" t="s">
-        <v>915</v>
+        <v>324</v>
       </c>
       <c r="B734" t="s">
-        <v>1175</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A735" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B735" t="s">
         <v>1175</v>
@@ -12112,7 +12116,7 @@
     </row>
     <row r="736" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A736" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B736" t="s">
         <v>1175</v>
@@ -12120,191 +12124,191 @@
     </row>
     <row r="737" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A737" t="s">
-        <v>325</v>
+        <v>917</v>
       </c>
       <c r="B737" t="s">
-        <v>1487</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A738" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B738" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A739" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B739" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A740" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B740" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A741" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B741" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A742" t="s">
-        <v>918</v>
+        <v>329</v>
       </c>
       <c r="B742" t="s">
-        <v>1175</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="743" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A743" t="s">
-        <v>330</v>
+        <v>918</v>
       </c>
       <c r="B743" t="s">
-        <v>1492</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A744" t="s">
-        <v>919</v>
+        <v>330</v>
       </c>
       <c r="B744" t="s">
-        <v>1175</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="745" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A745" t="s">
-        <v>331</v>
+        <v>919</v>
       </c>
       <c r="B745" t="s">
-        <v>1493</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A746" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B746" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A747" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B747" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A748" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B748" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A749" t="s">
-        <v>920</v>
+        <v>334</v>
       </c>
       <c r="B749" t="s">
-        <v>1175</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A750" t="s">
-        <v>335</v>
+        <v>920</v>
       </c>
       <c r="B750" t="s">
-        <v>1498</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="751" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A751" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B751" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A752" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B752" t="s">
-        <v>1500</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="753" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A753" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B753" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A754" t="s">
-        <v>921</v>
+        <v>338</v>
       </c>
       <c r="B754" t="s">
-        <v>1690</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A755" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B755" t="s">
-        <v>1703</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A756" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B756" t="s">
-        <v>1666</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A757" t="s">
-        <v>1113</v>
+        <v>923</v>
       </c>
       <c r="B757" t="s">
-        <v>1179</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A758" t="s">
-        <v>924</v>
+        <v>1113</v>
       </c>
       <c r="B758" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A759" t="s">
-        <v>339</v>
+        <v>924</v>
       </c>
       <c r="B759" t="s">
-        <v>1703</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A760" t="s">
-        <v>925</v>
+        <v>339</v>
       </c>
       <c r="B760" t="s">
         <v>1703</v>
@@ -12312,15 +12316,15 @@
     </row>
     <row r="761" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A761" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B761" t="s">
-        <v>1263</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A762" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B762" t="s">
         <v>1263</v>
@@ -12328,95 +12332,95 @@
     </row>
     <row r="763" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A763" t="s">
-        <v>340</v>
+        <v>927</v>
       </c>
       <c r="B763" t="s">
-        <v>1224</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A764" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B764" t="s">
-        <v>1175</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="765" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A765" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B765" t="s">
-        <v>1526</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A766" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B766" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A767" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B767" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A768" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B768" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A769" t="s">
-        <v>1114</v>
+        <v>345</v>
       </c>
       <c r="B769" t="s">
-        <v>1179</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A770" t="s">
-        <v>346</v>
+        <v>1114</v>
       </c>
       <c r="B770" t="s">
-        <v>1530</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="771" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A771" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B771" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A772" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B772" t="s">
-        <v>1522</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A773" t="s">
-        <v>928</v>
+        <v>348</v>
       </c>
       <c r="B773" t="s">
-        <v>1703</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A774" t="s">
-        <v>349</v>
+        <v>928</v>
       </c>
       <c r="B774" t="s">
         <v>1703</v>
@@ -12424,7 +12428,7 @@
     </row>
     <row r="775" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A775" t="s">
-        <v>929</v>
+        <v>349</v>
       </c>
       <c r="B775" t="s">
         <v>1703</v>
@@ -12432,23 +12436,23 @@
     </row>
     <row r="776" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A776" t="s">
-        <v>350</v>
+        <v>929</v>
       </c>
       <c r="B776" t="s">
-        <v>1217</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A777" t="s">
-        <v>930</v>
+        <v>350</v>
       </c>
       <c r="B777" t="s">
-        <v>1703</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="778" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A778" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B778" t="s">
         <v>1703</v>
@@ -12456,143 +12460,143 @@
     </row>
     <row r="779" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A779" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B779" t="s">
-        <v>1686</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A780" t="s">
-        <v>351</v>
+        <v>932</v>
       </c>
       <c r="B780" t="s">
-        <v>1523</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A781" t="s">
-        <v>1115</v>
+        <v>351</v>
       </c>
       <c r="B781" t="s">
-        <v>1179</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A782" t="s">
-        <v>933</v>
+        <v>1115</v>
       </c>
       <c r="B782" t="s">
-        <v>1641</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="783" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A783" t="s">
-        <v>352</v>
+        <v>933</v>
       </c>
       <c r="B783" t="s">
-        <v>1522</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A784" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B784" t="s">
-        <v>1703</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="785" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A785" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B785" t="s">
-        <v>1217</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A786" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B786" t="s">
-        <v>1275</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A787" t="s">
-        <v>934</v>
+        <v>355</v>
       </c>
       <c r="B787" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A788" t="s">
-        <v>356</v>
+        <v>934</v>
       </c>
       <c r="B788" t="s">
-        <v>1225</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="789" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A789" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B789" t="s">
-        <v>1524</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A790" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B790" t="s">
-        <v>1179</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="791" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A791" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B791" t="s">
-        <v>1360</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A792" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B792" t="s">
-        <v>1179</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A793" t="s">
-        <v>935</v>
+        <v>360</v>
       </c>
       <c r="B793" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A794" t="s">
-        <v>361</v>
+        <v>935</v>
       </c>
       <c r="B794" t="s">
-        <v>1525</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A795" t="s">
-        <v>936</v>
+        <v>361</v>
       </c>
       <c r="B795" t="s">
-        <v>1175</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A796" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B796" t="s">
         <v>1175</v>
@@ -12600,15 +12604,15 @@
     </row>
     <row r="797" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A797" t="s">
-        <v>362</v>
+        <v>937</v>
       </c>
       <c r="B797" t="s">
-        <v>363</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A798" t="s">
-        <v>938</v>
+        <v>362</v>
       </c>
       <c r="B798" t="s">
         <v>363</v>
@@ -12616,7 +12620,7 @@
     </row>
     <row r="799" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A799" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B799" t="s">
         <v>363</v>
@@ -12624,7 +12628,7 @@
     </row>
     <row r="800" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A800" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B800" t="s">
         <v>363</v>
@@ -12632,7 +12636,7 @@
     </row>
     <row r="801" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A801" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B801" t="s">
         <v>363</v>
@@ -12640,7 +12644,7 @@
     </row>
     <row r="802" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A802" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B802" t="s">
         <v>363</v>
@@ -12648,7 +12652,7 @@
     </row>
     <row r="803" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A803" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B803" t="s">
         <v>363</v>
@@ -12656,7 +12660,7 @@
     </row>
     <row r="804" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A804" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B804" t="s">
         <v>363</v>
@@ -12664,55 +12668,55 @@
     </row>
     <row r="805" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A805" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B805" t="s">
-        <v>736</v>
+        <v>363</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A806" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B806" t="s">
-        <v>1266</v>
+        <v>736</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A807" t="s">
-        <v>1167</v>
+        <v>946</v>
       </c>
       <c r="B807" t="s">
-        <v>1168</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A808" t="s">
-        <v>1116</v>
+        <v>1167</v>
       </c>
       <c r="B808" t="s">
-        <v>1198</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A809" t="s">
-        <v>364</v>
+        <v>1116</v>
       </c>
       <c r="B809" t="s">
-        <v>1532</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A810" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B810" t="s">
-        <v>1215</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A811" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B811" t="s">
         <v>1215</v>
@@ -12720,7 +12724,7 @@
     </row>
     <row r="812" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A812" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B812" t="s">
         <v>1215</v>
@@ -12728,7 +12732,7 @@
     </row>
     <row r="813" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A813" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B813" t="s">
         <v>1215</v>
@@ -12736,7 +12740,7 @@
     </row>
     <row r="814" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A814" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B814" t="s">
         <v>1215</v>
@@ -12744,7 +12748,7 @@
     </row>
     <row r="815" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A815" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B815" t="s">
         <v>1215</v>
@@ -12752,7 +12756,7 @@
     </row>
     <row r="816" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A816" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B816" t="s">
         <v>1215</v>
@@ -12760,191 +12764,191 @@
     </row>
     <row r="817" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A817" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B817" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A818" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B818" t="s">
-        <v>1228</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A819" t="s">
-        <v>947</v>
+        <v>373</v>
       </c>
       <c r="B819" t="s">
-        <v>1265</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A820" t="s">
-        <v>1165</v>
+        <v>947</v>
       </c>
       <c r="B820" t="s">
-        <v>1187</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="821" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A821" t="s">
-        <v>1117</v>
+        <v>1165</v>
       </c>
       <c r="B821" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A822" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B822" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="823" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A823" t="s">
-        <v>948</v>
+        <v>1118</v>
       </c>
       <c r="B823" t="s">
-        <v>1703</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A824" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B824" t="s">
-        <v>1267</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A825" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B825" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A826" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B826" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A827" t="s">
-        <v>374</v>
+        <v>951</v>
       </c>
       <c r="B827" t="s">
-        <v>1229</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A828" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B828" t="s">
-        <v>1535</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A829" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B829" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A830" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B830" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A831" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B831" t="s">
-        <v>1230</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A832" t="s">
-        <v>1119</v>
+        <v>379</v>
       </c>
       <c r="B832" t="s">
-        <v>1195</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A833" t="s">
-        <v>380</v>
+        <v>1119</v>
       </c>
       <c r="B833" t="s">
-        <v>1215</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A834" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B834" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A835" t="s">
-        <v>952</v>
+        <v>381</v>
       </c>
       <c r="B835" t="s">
-        <v>1175</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A836" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B836" t="s">
-        <v>1265</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A837" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B837" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A838" t="s">
-        <v>382</v>
+        <v>954</v>
       </c>
       <c r="B838" t="s">
-        <v>1175</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="839" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A839" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B839" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A840" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B840" t="s">
         <v>1179</v>
@@ -12952,47 +12956,47 @@
     </row>
     <row r="841" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A841" t="s">
-        <v>955</v>
+        <v>384</v>
       </c>
       <c r="B841" t="s">
-        <v>1221</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A842" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B842" t="s">
-        <v>1175</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="843" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A843" t="s">
-        <v>385</v>
+        <v>956</v>
       </c>
       <c r="B843" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A844" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B844" t="s">
-        <v>1278</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A845" t="s">
-        <v>957</v>
+        <v>378</v>
       </c>
       <c r="B845" t="s">
-        <v>1225</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A846" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B846" t="s">
         <v>1225</v>
@@ -13000,7 +13004,7 @@
     </row>
     <row r="847" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A847" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B847" t="s">
         <v>1225</v>
@@ -13008,87 +13012,87 @@
     </row>
     <row r="848" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A848" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B848" t="s">
-        <v>1703</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A849" t="s">
-        <v>386</v>
+        <v>960</v>
       </c>
       <c r="B849" t="s">
-        <v>1502</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A850" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B850" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A851" t="s">
-        <v>961</v>
+        <v>387</v>
       </c>
       <c r="B851" t="s">
-        <v>1275</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A852" t="s">
-        <v>388</v>
+        <v>961</v>
       </c>
       <c r="B852" t="s">
-        <v>1536</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="853" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A853" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B853" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="854" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A854" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B854" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="855" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A855" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B855" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A856" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B856" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="857" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A857" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B857" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="858" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A858" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B858" t="s">
         <v>1541</v>
@@ -13096,63 +13100,63 @@
     </row>
     <row r="859" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A859" t="s">
-        <v>962</v>
+        <v>394</v>
       </c>
       <c r="B859" t="s">
-        <v>1270</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="860" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A860" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B860" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="861" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A861" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B861" t="s">
-        <v>1175</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A862" t="s">
-        <v>395</v>
+        <v>964</v>
       </c>
       <c r="B862" t="s">
-        <v>1542</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="863" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A863" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B863" t="s">
-        <v>1231</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A864" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B864" t="s">
-        <v>1543</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A865" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B865" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A866" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B866" t="s">
         <v>1544</v>
@@ -13160,103 +13164,103 @@
     </row>
     <row r="867" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A867" t="s">
+        <v>399</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A868" t="s">
         <v>1120</v>
       </c>
-      <c r="B867" t="s">
+      <c r="B868" t="s">
         <v>1196</v>
-      </c>
-    </row>
-    <row r="868" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A868" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="B868" s="2" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="869" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A869" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="870" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A870" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="871" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A871" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="872" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A872" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="873" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A873" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A874" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A875" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B875" s="2" t="s">
         <v>1551</v>
       </c>
     </row>
     <row r="876" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A876" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B876" t="s">
-        <v>1511</v>
+      <c r="A876" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="877" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A877" t="s">
-        <v>1121</v>
+        <v>1140</v>
       </c>
       <c r="B877" t="s">
-        <v>1197</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A878" t="s">
-        <v>965</v>
+        <v>1121</v>
       </c>
       <c r="B878" t="s">
-        <v>1703</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="879" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A879" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B879" t="s">
         <v>1703</v>
@@ -13264,47 +13268,47 @@
     </row>
     <row r="880" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A880" t="s">
-        <v>1170</v>
+        <v>966</v>
       </c>
       <c r="B880" t="s">
-        <v>1186</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="881" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A881" t="s">
-        <v>408</v>
+        <v>1170</v>
       </c>
       <c r="B881" t="s">
-        <v>1661</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="882" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A882" t="s">
-        <v>967</v>
+        <v>408</v>
       </c>
       <c r="B882" t="s">
-        <v>1217</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="883" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A883" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B883" t="s">
-        <v>1660</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="884" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A884" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B884" t="s">
-        <v>1703</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="885" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A885" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="B885" t="s">
         <v>1703</v>
@@ -13312,7 +13316,7 @@
     </row>
     <row r="886" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A886" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B886" t="s">
         <v>1703</v>
@@ -13320,287 +13324,287 @@
     </row>
     <row r="887" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A887" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B887" t="s">
-        <v>1334</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="888" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A888" t="s">
-        <v>621</v>
+        <v>972</v>
       </c>
       <c r="B888" t="s">
-        <v>1187</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="889" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A889" t="s">
-        <v>409</v>
+        <v>621</v>
       </c>
       <c r="B889" t="s">
-        <v>1237</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A890" t="s">
-        <v>973</v>
+        <v>409</v>
       </c>
       <c r="B890" t="s">
-        <v>1703</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="891" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A891" t="s">
+        <v>973</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A892" t="s">
         <v>1122</v>
       </c>
-      <c r="B891" t="s">
+      <c r="B892" t="s">
         <v>1194</v>
-      </c>
-    </row>
-    <row r="892" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A892" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="B892" s="2" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="893" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A893" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>1558</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A894" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="895" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A895" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="896" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A896" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A897" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="898" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A898" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A899" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="900" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A900" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="901" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A901" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="902" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A902" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A903" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="904" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A904" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="905" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A905" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="906" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A906" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A907" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="908" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A908" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="909" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A909" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="910" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A910" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A911" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1504</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="912" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A912" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>1552</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A913" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="914" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A914" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="915" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A915" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="916" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A916" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A917" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B916" s="2" t="s">
+      <c r="B917" s="2" t="s">
         <v>1556</v>
-      </c>
-    </row>
-    <row r="917" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A917" t="s">
-        <v>974</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="918" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A918" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B918" t="s">
-        <v>1522</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="919" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A919" t="s">
-        <v>435</v>
+        <v>975</v>
       </c>
       <c r="B919" t="s">
-        <v>1703</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="920" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A920" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B920" t="s">
-        <v>1217</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="921" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A921" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B921" t="s">
-        <v>1703</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="922" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A922" t="s">
-        <v>976</v>
+        <v>437</v>
       </c>
       <c r="B922" t="s">
         <v>1703</v>
@@ -13608,383 +13612,383 @@
     </row>
     <row r="923" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A923" t="s">
-        <v>438</v>
+        <v>976</v>
       </c>
       <c r="B923" t="s">
-        <v>1557</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="924" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A924" t="s">
-        <v>977</v>
+        <v>438</v>
       </c>
       <c r="B924" t="s">
-        <v>1642</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="925" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A925" t="s">
-        <v>439</v>
+        <v>977</v>
       </c>
       <c r="B925" t="s">
-        <v>1179</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="926" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A926" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B926" t="s">
-        <v>1703</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="927" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A927" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B927" t="s">
-        <v>1179</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="928" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A928" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B928" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="929" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A929" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B929" t="s">
-        <v>1232</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="930" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A930" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B930" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="931" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A931" t="s">
+        <v>444</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A932" t="s">
         <v>445</v>
       </c>
-      <c r="B931" t="s">
+      <c r="B932" t="s">
         <v>1234</v>
-      </c>
-    </row>
-    <row r="932" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A932" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B932" s="2" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="933" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A933" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B933" s="2" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="934" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A934" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B934" s="2" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="935" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A935" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B935" s="2" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A936" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B936" s="2" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="937" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A937" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B937" s="2" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="938" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A938" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A939" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B938" s="2" t="s">
+      <c r="B939" s="2" t="s">
         <v>1582</v>
-      </c>
-    </row>
-    <row r="939" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A939" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B939" t="s">
-        <v>1182</v>
       </c>
     </row>
     <row r="940" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A940" t="s">
-        <v>978</v>
+        <v>1141</v>
       </c>
       <c r="B940" t="s">
-        <v>1521</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="941" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A941" t="s">
-        <v>453</v>
+        <v>978</v>
       </c>
       <c r="B941" t="s">
-        <v>1733</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="942" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A942" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B942" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="943" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A943" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B943" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="944" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A944" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B944" t="s">
-        <v>1521</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="945" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A945" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B945" t="s">
-        <v>1734</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="946" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A946" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B946" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="947" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A947" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B947" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="948" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A948" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B948" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="949" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A949" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B949" t="s">
-        <v>1313</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="950" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A950" t="s">
+        <v>461</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A951" t="s">
         <v>462</v>
       </c>
-      <c r="B950" t="s">
+      <c r="B951" t="s">
         <v>1232</v>
-      </c>
-    </row>
-    <row r="951" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A951" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="B951" s="2" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="952" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A952" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A953" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="B952" s="2" t="s">
+      <c r="B953" s="2" t="s">
         <v>1644</v>
       </c>
     </row>
-    <row r="953" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A953" t="s">
+    <row r="954" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A954" t="s">
         <v>463</v>
       </c>
-      <c r="B953" t="s">
+      <c r="B954" t="s">
         <v>1206</v>
-      </c>
-    </row>
-    <row r="954" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A954" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="B954" s="2" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="955" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A955" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B955" s="2" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="956" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A956" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B956" s="2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="957" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A957" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B957" s="2" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="958" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A958" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B958" s="2" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="959" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A959" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B959" s="2" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="960" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A960" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B960" s="2" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="961" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A961" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>1591</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A962" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B961" s="2" t="s">
+      <c r="B962" s="2" t="s">
         <v>1592</v>
-      </c>
-    </row>
-    <row r="962" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A962" t="s">
-        <v>472</v>
-      </c>
-      <c r="B962" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="963" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A963" t="s">
-        <v>981</v>
+        <v>472</v>
       </c>
       <c r="B963" t="s">
-        <v>1645</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="964" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A964" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B964" t="s">
-        <v>1233</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="965" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A965" t="s">
-        <v>473</v>
+        <v>982</v>
       </c>
       <c r="B965" t="s">
         <v>1233</v>
       </c>
     </row>
     <row r="966" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A966" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="B966" s="2" t="s">
-        <v>1646</v>
+      <c r="A966" t="s">
+        <v>473</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1233</v>
       </c>
     </row>
     <row r="967" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A967" s="2" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B967" s="2" t="s">
-        <v>1570</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="968" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A968" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A969" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="B968" s="2" t="s">
+      <c r="B969" s="2" t="s">
         <v>1647</v>
-      </c>
-    </row>
-    <row r="969" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A969" t="s">
-        <v>986</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="970" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A970" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B970" t="s">
         <v>1247</v>
@@ -13992,7 +13996,7 @@
     </row>
     <row r="971" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A971" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B971" t="s">
         <v>1247</v>
@@ -14000,71 +14004,71 @@
     </row>
     <row r="972" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A972" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B972" t="s">
-        <v>1206</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="973" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A973" t="s">
-        <v>474</v>
+        <v>989</v>
       </c>
       <c r="B973" t="s">
-        <v>1235</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="974" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A974" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B974" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="975" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A975" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B975" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="976" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A976" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B976" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="977" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A977" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B977" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="978" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A978" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B978" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="979" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A979" t="s">
-        <v>990</v>
+        <v>479</v>
       </c>
       <c r="B979" t="s">
-        <v>1274</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="980" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A980" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B980" t="s">
         <v>1274</v>
@@ -14072,87 +14076,87 @@
     </row>
     <row r="981" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A981" t="s">
-        <v>480</v>
+        <v>991</v>
       </c>
       <c r="B981" t="s">
-        <v>1233</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="982" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A982" t="s">
-        <v>992</v>
+        <v>480</v>
       </c>
       <c r="B982" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="983" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A983" t="s">
-        <v>481</v>
+        <v>992</v>
       </c>
       <c r="B983" t="s">
-        <v>1182</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="984" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A984" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B984" t="s">
-        <v>1737</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="985" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A985" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B985" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="986" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A986" t="s">
-        <v>993</v>
+        <v>483</v>
       </c>
       <c r="B986" t="s">
-        <v>1703</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="987" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A987" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B987" t="s">
-        <v>1206</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="988" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A988" t="s">
-        <v>484</v>
+        <v>994</v>
       </c>
       <c r="B988" t="s">
-        <v>1739</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="989" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A989" t="s">
-        <v>995</v>
+        <v>484</v>
       </c>
       <c r="B989" t="s">
-        <v>1597</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="990" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A990" t="s">
-        <v>485</v>
+        <v>995</v>
       </c>
       <c r="B990" t="s">
-        <v>1703</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="991" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A991" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B991" t="s">
         <v>1703</v>
@@ -14160,15 +14164,15 @@
     </row>
     <row r="992" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A992" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B992" t="s">
-        <v>1232</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="993" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A993" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B993" t="s">
         <v>1232</v>
@@ -14176,15 +14180,15 @@
     </row>
     <row r="994" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A994" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B994" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="995" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A995" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B995" t="s">
         <v>1237</v>
@@ -14192,31 +14196,31 @@
     </row>
     <row r="996" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A996" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B996" t="s">
-        <v>1703</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="997" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A997" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B997" t="s">
-        <v>1210</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="998" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A998" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B998" t="s">
-        <v>1233</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="999" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A999" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B999" t="s">
         <v>1233</v>
@@ -14224,23 +14228,23 @@
     </row>
     <row r="1000" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1000" t="s">
-        <v>996</v>
+        <v>494</v>
       </c>
       <c r="B1000" t="s">
-        <v>1691</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1001" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1001" t="s">
-        <v>495</v>
+        <v>996</v>
       </c>
       <c r="B1001" t="s">
-        <v>1238</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1002" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1002" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B1002" t="s">
         <v>1238</v>
@@ -14248,159 +14252,159 @@
     </row>
     <row r="1003" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1003" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B1003" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="1004" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1004" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B1004" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="1005" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1005" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B1005" t="s">
-        <v>1595</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="1006" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1006" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B1006" t="s">
-        <v>1237</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1007" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1007" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1008" t="s">
         <v>997</v>
       </c>
-      <c r="B1007" t="s">
+      <c r="B1008" t="s">
         <v>1703</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1008" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B1008" s="2" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="1009" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1009" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B1009" s="2" t="s">
-        <v>1573</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1010" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1010" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B1010" s="2" t="s">
-        <v>1578</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="1011" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1011" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B1011" s="2" t="s">
-        <v>1581</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="1012" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1012" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1013" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="B1012" s="2" t="s">
+      <c r="B1013" s="2" t="s">
         <v>1597</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1013" t="s">
-        <v>998</v>
-      </c>
-      <c r="B1013" t="s">
-        <v>1703</v>
       </c>
     </row>
     <row r="1014" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1014" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B1014" t="s">
-        <v>1685</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1015" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1015" t="s">
-        <v>506</v>
+        <v>999</v>
       </c>
       <c r="B1015" t="s">
-        <v>1220</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="1016" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1016" t="s">
-        <v>1123</v>
+        <v>506</v>
       </c>
       <c r="B1016" t="s">
-        <v>1703</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="1017" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1017" t="s">
-        <v>1000</v>
+        <v>1123</v>
       </c>
       <c r="B1017" t="s">
-        <v>1696</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1018" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1018" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B1018" t="s">
-        <v>1283</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1019" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1019" t="s">
-        <v>507</v>
+        <v>1001</v>
       </c>
       <c r="B1019" t="s">
-        <v>1662</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1020" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1020" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B1020" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="1021" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1021" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B1021" t="s">
-        <v>1241</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="1022" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1022" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B1022" t="s">
         <v>1241</v>
@@ -14408,119 +14412,119 @@
     </row>
     <row r="1023" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1023" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1023" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="1024" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1024" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B1024" t="s">
-        <v>1703</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="1025" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1025" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B1025" t="s">
-        <v>1233</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1026" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1026" t="s">
-        <v>1002</v>
+        <v>513</v>
       </c>
       <c r="B1026" t="s">
-        <v>1283</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="1027" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1027" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B1027" t="s">
-        <v>1703</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="1028" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1028" t="s">
-        <v>514</v>
+        <v>1003</v>
       </c>
       <c r="B1028" t="s">
-        <v>1664</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1029" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1029" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1029" t="s">
-        <v>1703</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="1030" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1030" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B1030" t="s">
-        <v>1665</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1031" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1031" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B1031" t="s">
-        <v>1703</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="1032" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1032" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B1032" t="s">
-        <v>1740</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1033" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1033" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B1033" t="s">
-        <v>1565</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1034" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1034" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B1034" t="s">
-        <v>1206</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="1035" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1035" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B1035" t="s">
-        <v>1566</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1036" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1036" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B1036" t="s">
-        <v>1703</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="1037" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1037" t="s">
-        <v>1004</v>
+        <v>522</v>
       </c>
       <c r="B1037" t="s">
         <v>1703</v>
@@ -14528,7 +14532,7 @@
     </row>
     <row r="1038" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1038" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B1038" t="s">
         <v>1703</v>
@@ -14536,111 +14540,111 @@
     </row>
     <row r="1039" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1039" t="s">
-        <v>523</v>
+        <v>1005</v>
       </c>
       <c r="B1039" t="s">
-        <v>1568</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1040" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1040" t="s">
-        <v>1006</v>
+        <v>523</v>
       </c>
       <c r="B1040" t="s">
-        <v>1519</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="1041" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1041" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B1041" t="s">
-        <v>1572</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="1042" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1042" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B1042" t="s">
-        <v>1518</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="1043" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1043" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B1043" t="s">
-        <v>1648</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1044" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1044" t="s">
-        <v>524</v>
+        <v>1009</v>
       </c>
       <c r="B1044" t="s">
-        <v>1279</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1045" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1045" t="s">
-        <v>1010</v>
+        <v>524</v>
       </c>
       <c r="B1045" t="s">
-        <v>1741</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="1046" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1046" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B1046" t="s">
-        <v>1577</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1047" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1047" t="s">
-        <v>525</v>
+        <v>1011</v>
       </c>
       <c r="B1047" t="s">
-        <v>1703</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="1048" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1048" t="s">
-        <v>1012</v>
+        <v>525</v>
       </c>
       <c r="B1048" t="s">
-        <v>1520</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1049" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1049" t="s">
-        <v>526</v>
+        <v>1012</v>
       </c>
       <c r="B1049" t="s">
-        <v>1666</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="1050" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1050" t="s">
-        <v>1013</v>
+        <v>526</v>
       </c>
       <c r="B1050" t="s">
-        <v>1226</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="1051" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1051" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B1051" t="s">
-        <v>363</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1052" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1052" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B1052" t="s">
         <v>363</v>
@@ -14648,7 +14652,7 @@
     </row>
     <row r="1053" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1053" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B1053" t="s">
         <v>363</v>
@@ -14656,7 +14660,7 @@
     </row>
     <row r="1054" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1054" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B1054" t="s">
         <v>363</v>
@@ -14664,15 +14668,15 @@
     </row>
     <row r="1055" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1055" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B1055" t="s">
-        <v>1225</v>
+        <v>363</v>
       </c>
     </row>
     <row r="1056" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1056" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1056" t="s">
         <v>1225</v>
@@ -14680,15 +14684,15 @@
     </row>
     <row r="1057" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1057" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B1057" t="s">
-        <v>1187</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1058" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1058" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1058" t="s">
         <v>1187</v>
@@ -14696,31 +14700,31 @@
     </row>
     <row r="1059" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1059" t="s">
-        <v>1124</v>
+        <v>1021</v>
       </c>
       <c r="B1059" t="s">
-        <v>1703</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="1060" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1060" t="s">
-        <v>1022</v>
+        <v>1124</v>
       </c>
       <c r="B1060" t="s">
-        <v>1226</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1061" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1061" t="s">
-        <v>527</v>
+        <v>1022</v>
       </c>
       <c r="B1061" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1062" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1062" t="s">
-        <v>1023</v>
+        <v>527</v>
       </c>
       <c r="B1062" t="s">
         <v>1225</v>
@@ -14728,31 +14732,31 @@
     </row>
     <row r="1063" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1063" t="s">
-        <v>1125</v>
+        <v>1023</v>
       </c>
       <c r="B1063" t="s">
-        <v>1193</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1064" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1064" t="s">
-        <v>1024</v>
+        <v>1125</v>
       </c>
       <c r="B1064" t="s">
-        <v>1226</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="1065" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1065" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B1065" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="1066" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1066" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B1066" t="s">
         <v>1225</v>
@@ -14760,7 +14764,7 @@
     </row>
     <row r="1067" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1067" t="s">
-        <v>528</v>
+        <v>1025</v>
       </c>
       <c r="B1067" t="s">
         <v>1225</v>
@@ -14768,7 +14772,7 @@
     </row>
     <row r="1068" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1068" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B1068" t="s">
         <v>1225</v>
@@ -14776,7 +14780,7 @@
     </row>
     <row r="1069" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1069" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B1069" t="s">
         <v>1225</v>
@@ -14784,7 +14788,7 @@
     </row>
     <row r="1070" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1070" t="s">
-        <v>1027</v>
+        <v>530</v>
       </c>
       <c r="B1070" t="s">
         <v>1225</v>
@@ -14792,7 +14796,7 @@
     </row>
     <row r="1071" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1071" t="s">
-        <v>531</v>
+        <v>1027</v>
       </c>
       <c r="B1071" t="s">
         <v>1225</v>
@@ -14800,7 +14804,7 @@
     </row>
     <row r="1072" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1072" t="s">
-        <v>1028</v>
+        <v>531</v>
       </c>
       <c r="B1072" t="s">
         <v>1225</v>
@@ -14808,87 +14812,87 @@
     </row>
     <row r="1073" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1073" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1073" t="s">
-        <v>1593</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1074" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1074" t="s">
-        <v>1126</v>
+        <v>1029</v>
       </c>
       <c r="B1074" t="s">
-        <v>1178</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1075" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1075" t="s">
-        <v>1030</v>
+        <v>1126</v>
       </c>
       <c r="B1075" t="s">
-        <v>1649</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="1076" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1076" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1076" t="s">
-        <v>1217</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1077" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1077" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B1077" t="s">
-        <v>1703</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1078" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1078" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B1078" t="s">
-        <v>1650</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1079" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1079" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B1079" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1080" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1080" t="s">
-        <v>1127</v>
+        <v>1034</v>
       </c>
       <c r="B1080" t="s">
-        <v>1177</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1081" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1081" t="s">
-        <v>532</v>
+        <v>1127</v>
       </c>
       <c r="B1081" t="s">
-        <v>1225</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="1082" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1082" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B1082" t="s">
-        <v>1206</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1083" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1083" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B1083" t="s">
         <v>1206</v>
@@ -14896,95 +14900,95 @@
     </row>
     <row r="1084" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1084" t="s">
-        <v>1128</v>
+        <v>534</v>
       </c>
       <c r="B1084" t="s">
-        <v>1176</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1085" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1085" t="s">
-        <v>1035</v>
+        <v>1128</v>
       </c>
       <c r="B1085" t="s">
-        <v>1206</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="1086" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1086" t="s">
-        <v>535</v>
+        <v>1035</v>
       </c>
       <c r="B1086" t="s">
-        <v>1225</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1087" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1087" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B1087" t="s">
-        <v>1703</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="1088" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1088" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B1088" t="s">
-        <v>1570</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1089" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1089" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B1089" t="s">
-        <v>1599</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="1090" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1090" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1090" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1091" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1091" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B1091" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1092" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1092" t="s">
-        <v>1036</v>
+        <v>540</v>
       </c>
       <c r="B1092" t="s">
-        <v>1652</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1093" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1093" t="s">
-        <v>1069</v>
+        <v>1036</v>
       </c>
       <c r="B1093" t="s">
-        <v>1208</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1094" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1094" t="s">
-        <v>541</v>
+        <v>1069</v>
       </c>
       <c r="B1094" t="s">
-        <v>1280</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1095" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1095" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B1095" t="s">
         <v>1280</v>
@@ -14992,47 +14996,47 @@
     </row>
     <row r="1096" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1096" t="s">
-        <v>624</v>
+        <v>542</v>
       </c>
       <c r="B1096" t="s">
-        <v>1625</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1097" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1097" t="s">
-        <v>1037</v>
+        <v>624</v>
       </c>
       <c r="B1097" t="s">
-        <v>1212</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1098" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1098" t="s">
-        <v>543</v>
+        <v>1037</v>
       </c>
       <c r="B1098" t="s">
-        <v>1280</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="1099" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1099" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B1099" t="s">
-        <v>1602</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="1100" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1100" t="s">
-        <v>1038</v>
+        <v>544</v>
       </c>
       <c r="B1100" t="s">
-        <v>1211</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1101" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1101" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B1101" t="s">
         <v>1211</v>
@@ -15040,39 +15044,39 @@
     </row>
     <row r="1102" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1102" t="s">
-        <v>545</v>
+        <v>1039</v>
       </c>
       <c r="B1102" t="s">
-        <v>1603</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="1103" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1103" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1103" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1104" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1104" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B1104" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1105" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1105" t="s">
-        <v>1040</v>
+        <v>547</v>
       </c>
       <c r="B1105" t="s">
-        <v>1198</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1106" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1106" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B1106" t="s">
         <v>1198</v>
@@ -15080,7 +15084,7 @@
     </row>
     <row r="1107" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1107" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B1107" t="s">
         <v>1198</v>
@@ -15088,7 +15092,7 @@
     </row>
     <row r="1108" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1108" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B1108" t="s">
         <v>1198</v>
@@ -15096,7 +15100,7 @@
     </row>
     <row r="1109" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1109" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B1109" t="s">
         <v>1198</v>
@@ -15104,127 +15108,127 @@
     </row>
     <row r="1110" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1110" t="s">
-        <v>548</v>
+        <v>1044</v>
       </c>
       <c r="B1110" t="s">
-        <v>1606</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="1111" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1111" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B1111" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1112" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1112" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B1112" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1113" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1113" t="s">
-        <v>1045</v>
+        <v>550</v>
       </c>
       <c r="B1113" t="s">
-        <v>1507</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1114" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1114" t="s">
-        <v>551</v>
+        <v>1045</v>
       </c>
       <c r="B1114" t="s">
-        <v>1276</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="1115" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1115" t="s">
-        <v>622</v>
+        <v>551</v>
       </c>
       <c r="B1115" t="s">
-        <v>1580</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="1116" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1116" t="s">
-        <v>1046</v>
+        <v>622</v>
       </c>
       <c r="B1116" t="s">
-        <v>1703</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="1117" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1117" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B1117" t="s">
-        <v>1653</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1118" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1118" t="s">
-        <v>552</v>
+        <v>1047</v>
       </c>
       <c r="B1118" t="s">
-        <v>1609</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1119" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1119" t="s">
-        <v>1129</v>
+        <v>552</v>
       </c>
       <c r="B1119" t="s">
-        <v>1191</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1120" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1120" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B1120" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="1121" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1121" t="s">
-        <v>1070</v>
+        <v>1130</v>
       </c>
       <c r="B1121" t="s">
-        <v>1654</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="1122" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1122" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B1122" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1123" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1123" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B1123" t="s">
-        <v>1206</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1124" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1124" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B1124" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1125" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1125" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B1125" t="s">
         <v>1208</v>
@@ -15232,7 +15236,7 @@
     </row>
     <row r="1126" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1126" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B1126" t="s">
         <v>1208</v>
@@ -15240,7 +15244,7 @@
     </row>
     <row r="1127" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1127" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B1127" t="s">
         <v>1208</v>
@@ -15248,7 +15252,7 @@
     </row>
     <row r="1128" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1128" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B1128" t="s">
         <v>1208</v>
@@ -15256,15 +15260,15 @@
     </row>
     <row r="1129" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1129" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B1129" t="s">
-        <v>676</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1130" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1130" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B1130" t="s">
         <v>676</v>
@@ -15272,7 +15276,7 @@
     </row>
     <row r="1131" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1131" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B1131" t="s">
         <v>676</v>
@@ -15280,7 +15284,7 @@
     </row>
     <row r="1132" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1132" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B1132" t="s">
         <v>676</v>
@@ -15288,15 +15292,15 @@
     </row>
     <row r="1133" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1133" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B1133" t="s">
-        <v>1208</v>
+        <v>676</v>
       </c>
     </row>
     <row r="1134" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1134" t="s">
-        <v>1048</v>
+        <v>1082</v>
       </c>
       <c r="B1134" t="s">
         <v>1208</v>
@@ -15304,39 +15308,39 @@
     </row>
     <row r="1135" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1135" t="s">
-        <v>1083</v>
+        <v>1048</v>
       </c>
       <c r="B1135" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1136" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1136" t="s">
-        <v>1049</v>
+        <v>1083</v>
       </c>
       <c r="B1136" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="1137" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1137" t="s">
-        <v>1084</v>
+        <v>1049</v>
       </c>
       <c r="B1137" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1138" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1138" t="s">
-        <v>1050</v>
+        <v>1084</v>
       </c>
       <c r="B1138" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="1139" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1139" t="s">
-        <v>1085</v>
+        <v>1050</v>
       </c>
       <c r="B1139" t="s">
         <v>1217</v>
@@ -15344,55 +15348,55 @@
     </row>
     <row r="1140" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1140" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B1140" t="s">
-        <v>1660</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="1141" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1141" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B1141" t="s">
-        <v>1522</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="1142" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1142" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B1142" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1143" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1143" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B1143" t="s">
-        <v>1703</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="1144" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1144" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="B1144" t="s">
-        <v>1207</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1145" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1145" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B1145" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="1146" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1146" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B1146" t="s">
         <v>1206</v>
@@ -15400,63 +15404,63 @@
     </row>
     <row r="1147" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1147" t="s">
-        <v>1131</v>
+        <v>1092</v>
       </c>
       <c r="B1147" t="s">
-        <v>1181</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1148" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1148" t="s">
-        <v>1051</v>
+        <v>1131</v>
       </c>
       <c r="B1148" t="s">
-        <v>1703</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="1149" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1149" t="s">
-        <v>1093</v>
+        <v>1051</v>
       </c>
       <c r="B1149" t="s">
-        <v>1742</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1150" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1150" t="s">
-        <v>1052</v>
+        <v>1093</v>
       </c>
       <c r="B1150" t="s">
-        <v>1522</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1151" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1151" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B1151" t="s">
-        <v>1743</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="1152" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1152" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B1152" t="s">
-        <v>1703</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1153" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1153" t="s">
-        <v>1132</v>
+        <v>1055</v>
       </c>
       <c r="B1153" t="s">
-        <v>1744</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1154" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1154" t="s">
-        <v>1054</v>
+        <v>1132</v>
       </c>
       <c r="B1154" t="s">
         <v>1744</v>
@@ -15464,31 +15468,31 @@
     </row>
     <row r="1155" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1155" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B1155" t="s">
-        <v>1703</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1156" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1156" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B1156" t="s">
-        <v>1210</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1157" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1157" t="s">
-        <v>1094</v>
+        <v>1057</v>
       </c>
       <c r="B1157" t="s">
-        <v>1745</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="1158" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1158" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B1158" t="s">
         <v>1745</v>
@@ -15496,15 +15500,15 @@
     </row>
     <row r="1159" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1159" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B1159" t="s">
-        <v>1206</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1160" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1160" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B1160" t="s">
         <v>1206</v>
@@ -15512,7 +15516,7 @@
     </row>
     <row r="1161" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1161" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B1161" t="s">
         <v>1206</v>
@@ -15520,17 +15524,25 @@
     </row>
     <row r="1162" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1162" t="s">
-        <v>1133</v>
+        <v>1098</v>
       </c>
       <c r="B1162" t="s">
-        <v>1659</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="1163" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1163" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1164" t="s">
         <v>623</v>
       </c>
-      <c r="B1163" t="s">
+      <c r="B1164" t="s">
         <v>1625</v>
       </c>
     </row>
